--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -451,17 +451,13 @@
         <v>0.6118683333333332</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.6081</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6081</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,16 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.61</v>
+        <v>0.6081</v>
       </c>
       <c r="K3" t="n">
         <v>0.6081</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,14 +525,12 @@
         <v>0.6117783333333332</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.6093</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.6081</v>
       </c>
@@ -576,18 +566,20 @@
         <v>0.6117149999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>0.6081</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,22 +607,14 @@
         <v>0.6115533333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.6098</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +642,14 @@
         <v>0.6115399999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.6087</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +677,13 @@
         <v>0.6113449999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +712,14 @@
         <v>0.6111833333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +747,14 @@
         <v>0.6110333333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.6089</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -832,14 +788,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,14 +823,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -914,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -949,22 +887,14 @@
         <v>0.6105116666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,22 +922,14 @@
         <v>0.610345</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6096</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1035,22 +957,14 @@
         <v>0.6103000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +992,14 @@
         <v>0.6102083333333332</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6076</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1121,22 +1027,14 @@
         <v>0.6100433333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6075</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1062,14 @@
         <v>0.6099383333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6077</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,24 +1097,16 @@
         <v>0.6098916666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.9933606557377049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1250,22 +1132,14 @@
         <v>0.6098183333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,22 +1167,14 @@
         <v>0.6096683333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,17 +1202,13 @@
         <v>0.6095383333333332</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.6085</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.6085</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1375,22 +1237,14 @@
         <v>0.6094983333333331</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.6085</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,22 +1272,14 @@
         <v>0.6094333333333332</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.6085</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1461,17 +1307,13 @@
         <v>0.6094049999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1500,22 +1342,14 @@
         <v>0.6093583333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1543,22 +1377,14 @@
         <v>0.6093683333333332</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1586,17 +1412,13 @@
         <v>0.6093716666666665</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6097</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1625,22 +1447,14 @@
         <v>0.6093799999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1668,22 +1482,14 @@
         <v>0.6091766666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1711,17 +1517,13 @@
         <v>0.6091716666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.6093</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1750,22 +1552,14 @@
         <v>0.6091666666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1793,22 +1587,14 @@
         <v>0.6091733333333332</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1836,17 +1622,13 @@
         <v>0.6091799999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1875,22 +1657,14 @@
         <v>0.6093633333333331</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +1692,14 @@
         <v>0.6094516666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1999,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2034,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2069,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2104,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2139,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2174,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2209,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2244,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2279,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6081</v>
+        <v>0.6095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6081</v>
+        <v>0.6095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6081</v>
+        <v>0.6095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6081</v>
+        <v>0.6095</v>
       </c>
       <c r="F2" t="n">
-        <v>1781702.867</v>
+        <v>1959369.2466</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6118683333333332</v>
+        <v>0.6120333333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.61</v>
+        <v>0.6081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.61</v>
+        <v>0.6081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.6081</v>
       </c>
       <c r="E3" t="n">
-        <v>0.61</v>
+        <v>0.6081</v>
       </c>
       <c r="F3" t="n">
-        <v>827.0643</v>
+        <v>1781702.867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6117816666666666</v>
+        <v>0.6118683333333332</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.6081</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6081</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -507,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6093</v>
+        <v>0.61</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6093</v>
+        <v>0.61</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6093</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6093</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1577095.651</v>
+        <v>827.0643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6117783333333332</v>
+        <v>0.6117816666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -531,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0.6081</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -548,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="E5" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="F5" t="n">
-        <v>831.5947</v>
+        <v>1577095.651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6117149999999999</v>
+        <v>0.6117783333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.6081</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -589,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6098</v>
+        <v>0.61</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6098</v>
+        <v>0.61</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6098</v>
+        <v>0.61</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6098</v>
+        <v>0.61</v>
       </c>
       <c r="F6" t="n">
-        <v>1393114.5436</v>
+        <v>831.5947</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6115533333333332</v>
+        <v>0.6117149999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6087</v>
+        <v>0.6098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6087</v>
+        <v>0.6098</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6087</v>
+        <v>0.6098</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6087</v>
+        <v>0.6098</v>
       </c>
       <c r="F7" t="n">
-        <v>1876376.5022</v>
+        <v>1393114.5436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6115399999999999</v>
+        <v>0.6115533333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -659,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.61</v>
+        <v>0.6087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61</v>
+        <v>0.6087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>0.6087</v>
       </c>
       <c r="E8" t="n">
-        <v>0.61</v>
+        <v>0.6087</v>
       </c>
       <c r="F8" t="n">
-        <v>837.1571</v>
+        <v>1876376.5022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6113449999999999</v>
+        <v>0.6115399999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -694,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D9" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F9" t="n">
-        <v>6676673.5094</v>
+        <v>837.1571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6111833333333332</v>
+        <v>0.6113449999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6089</v>
+        <v>0.608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6089</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6089</v>
+        <v>0.608</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6089</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>839723.7457</v>
+        <v>6676673.5094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6110333333333332</v>
+        <v>0.6111833333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -776,10 +760,10 @@
         <v>0.6089</v>
       </c>
       <c r="F11" t="n">
-        <v>1638929.0323</v>
+        <v>839723.7457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6108233333333332</v>
+        <v>0.6110333333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -799,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6079</v>
+        <v>0.6089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6079</v>
+        <v>0.6089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6079</v>
+        <v>0.6089</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6079</v>
+        <v>0.6089</v>
       </c>
       <c r="F12" t="n">
-        <v>1158393.1288</v>
+        <v>1638929.0323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6107799999999999</v>
+        <v>0.6108233333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="C13" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="E13" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="F13" t="n">
-        <v>845.5238000000001</v>
+        <v>1158393.1288</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6106449999999999</v>
+        <v>0.6107799999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -869,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6099</v>
+        <v>0.61</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6099</v>
+        <v>0.61</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6099</v>
+        <v>0.61</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6099</v>
+        <v>0.61</v>
       </c>
       <c r="F14" t="n">
-        <v>1797174.7237</v>
+        <v>845.5238000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6105116666666667</v>
+        <v>0.6106449999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -904,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="F15" t="n">
-        <v>452085.7535</v>
+        <v>1797174.7237</v>
       </c>
       <c r="G15" t="n">
-        <v>0.610345</v>
+        <v>0.6105116666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -939,28 +923,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.61</v>
+        <v>0.6096</v>
       </c>
       <c r="C16" t="n">
-        <v>0.61</v>
+        <v>0.6096</v>
       </c>
       <c r="D16" t="n">
-        <v>0.61</v>
+        <v>0.6096</v>
       </c>
       <c r="E16" t="n">
-        <v>0.61</v>
+        <v>0.6096</v>
       </c>
       <c r="F16" t="n">
-        <v>855.3108999999999</v>
+        <v>452085.7535</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6103000000000001</v>
+        <v>0.610345</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -974,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6076</v>
+        <v>0.61</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6076</v>
+        <v>0.61</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6076</v>
+        <v>0.61</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6076</v>
+        <v>0.61</v>
       </c>
       <c r="F17" t="n">
-        <v>1246861.8506</v>
+        <v>855.3108999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6102083333333332</v>
+        <v>0.6103000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1009,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6075</v>
+        <v>0.6076</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6075</v>
+        <v>0.6076</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6075</v>
+        <v>0.6076</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6075</v>
+        <v>0.6076</v>
       </c>
       <c r="F18" t="n">
-        <v>11629.1667</v>
+        <v>1246861.8506</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6100433333333333</v>
+        <v>0.6102083333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1044,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6077</v>
+        <v>0.6075</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6077</v>
+        <v>0.6075</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6077</v>
+        <v>0.6075</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6077</v>
+        <v>0.6075</v>
       </c>
       <c r="F19" t="n">
-        <v>1858313.0453</v>
+        <v>11629.1667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6099383333333334</v>
+        <v>0.6100433333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1079,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.609</v>
+        <v>0.6077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.609</v>
+        <v>0.6077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.609</v>
+        <v>0.6077</v>
       </c>
       <c r="E20" t="n">
-        <v>0.609</v>
+        <v>0.6077</v>
       </c>
       <c r="F20" t="n">
-        <v>1980953.39</v>
+        <v>1858313.0453</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6098916666666666</v>
+        <v>0.6099383333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1114,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.608</v>
+        <v>0.609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.608</v>
+        <v>0.609</v>
       </c>
       <c r="D21" t="n">
-        <v>0.608</v>
+        <v>0.609</v>
       </c>
       <c r="E21" t="n">
-        <v>0.608</v>
+        <v>0.609</v>
       </c>
       <c r="F21" t="n">
-        <v>671330.3169</v>
+        <v>1980953.39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6098183333333332</v>
+        <v>0.6098916666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1149,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6097</v>
+        <v>0.608</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6097</v>
+        <v>0.608</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6097</v>
+        <v>0.608</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6097</v>
+        <v>0.608</v>
       </c>
       <c r="F22" t="n">
-        <v>444903.4533</v>
+        <v>671330.3169</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6096683333333333</v>
+        <v>0.6098183333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1184,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="F23" t="n">
-        <v>1019167.8796</v>
+        <v>444903.4533</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6095383333333332</v>
+        <v>0.6096683333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,31 +1203,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.61</v>
+        <v>0.6085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.61</v>
+        <v>0.6085</v>
       </c>
       <c r="D24" t="n">
-        <v>0.61</v>
+        <v>0.6085</v>
       </c>
       <c r="E24" t="n">
-        <v>0.61</v>
+        <v>0.6085</v>
       </c>
       <c r="F24" t="n">
-        <v>874.5791</v>
+        <v>1019167.8796</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6094983333333331</v>
+        <v>0.6095383333333332</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6097</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1254,22 +1242,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="F25" t="n">
-        <v>812202.0176</v>
+        <v>874.5791</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6094333333333332</v>
+        <v>0.6094983333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1278,8 +1266,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1289,22 +1283,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.61</v>
+        <v>0.6078</v>
       </c>
       <c r="C26" t="n">
-        <v>0.61</v>
+        <v>0.6078</v>
       </c>
       <c r="D26" t="n">
-        <v>0.61</v>
+        <v>0.6078</v>
       </c>
       <c r="E26" t="n">
-        <v>0.61</v>
+        <v>0.6078</v>
       </c>
       <c r="F26" t="n">
-        <v>903.5476</v>
+        <v>812202.0176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6094049999999999</v>
+        <v>0.6094333333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1313,8 +1307,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="F27" t="n">
-        <v>1102781.9294</v>
+        <v>903.5476</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6093583333333332</v>
+        <v>0.6094049999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1359,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.61</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.61</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.61</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.61</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>848.1223</v>
+        <v>1102781.9294</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6093683333333332</v>
+        <v>0.6093583333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1394,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="F29" t="n">
-        <v>910560.4346</v>
+        <v>848.1223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6093716666666665</v>
+        <v>0.6093683333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="C30" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="D30" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="E30" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="F30" t="n">
-        <v>857.9387</v>
+        <v>910560.4346</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6093799999999999</v>
+        <v>0.6093716666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1464,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6078</v>
+        <v>0.61</v>
       </c>
       <c r="F31" t="n">
-        <v>1200275.4751</v>
+        <v>857.9387</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6091766666666666</v>
+        <v>0.6093799999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6093</v>
+        <v>0.6078</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6093</v>
+        <v>0.6078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6093</v>
+        <v>0.6078</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6093</v>
+        <v>0.6078</v>
       </c>
       <c r="F32" t="n">
-        <v>2005613.7557</v>
+        <v>1200275.4751</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6091716666666666</v>
+        <v>0.6091766666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1534,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6099</v>
+        <v>0.6093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6099</v>
+        <v>0.6093</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6099</v>
+        <v>0.6093</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6099</v>
+        <v>0.6093</v>
       </c>
       <c r="F33" t="n">
-        <v>1231273.7077</v>
+        <v>2005613.7557</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6091666666666666</v>
+        <v>0.6091716666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.61</v>
+        <v>0.6099</v>
       </c>
       <c r="C34" t="n">
-        <v>0.61</v>
+        <v>0.6099</v>
       </c>
       <c r="D34" t="n">
-        <v>0.61</v>
+        <v>0.6099</v>
       </c>
       <c r="E34" t="n">
-        <v>0.61</v>
+        <v>0.6099</v>
       </c>
       <c r="F34" t="n">
-        <v>33419.1615</v>
+        <v>1231273.7077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6091733333333332</v>
+        <v>0.6091666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>0.61</v>
       </c>
       <c r="F35" t="n">
-        <v>1408703.1114</v>
+        <v>33419.1615</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6091799999999999</v>
+        <v>0.6091733333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1639,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C36" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="D36" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E36" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F36" t="n">
-        <v>1234</v>
+        <v>1408703.1114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6093633333333331</v>
+        <v>0.6091799999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1674,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F37" t="n">
-        <v>2030050.6393</v>
+        <v>1234</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6094516666666666</v>
+        <v>0.6093633333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6128</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6128</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6128</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6128</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>2009442.9264</v>
+        <v>2030050.6393</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6095133333333334</v>
+        <v>0.6094516666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1744,28 +1744,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.61</v>
+        <v>0.6128</v>
       </c>
       <c r="C39" t="n">
-        <v>0.61</v>
+        <v>0.6128</v>
       </c>
       <c r="D39" t="n">
-        <v>0.61</v>
+        <v>0.6128</v>
       </c>
       <c r="E39" t="n">
-        <v>0.61</v>
+        <v>0.6128</v>
       </c>
       <c r="F39" t="n">
-        <v>419244.3291</v>
+        <v>2009442.9264</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6095416666666666</v>
+        <v>0.6095133333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1779,28 +1779,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6133</v>
+        <v>0.61</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6133</v>
+        <v>0.61</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6133</v>
+        <v>0.61</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6133</v>
+        <v>0.61</v>
       </c>
       <c r="F40" t="n">
-        <v>439172.5695</v>
+        <v>419244.3291</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6095966666666667</v>
+        <v>0.6095416666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1814,28 +1814,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.62</v>
+        <v>0.6133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.62</v>
+        <v>0.6133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.62</v>
+        <v>0.6133</v>
       </c>
       <c r="E41" t="n">
-        <v>0.62</v>
+        <v>0.6133</v>
       </c>
       <c r="F41" t="n">
-        <v>810.7875</v>
+        <v>439172.5695</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6097966666666667</v>
+        <v>0.6095966666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1849,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6202</v>
+        <v>0.62</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6202</v>
+        <v>0.62</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="F42" t="n">
-        <v>823267.9745</v>
+        <v>810.7875</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6099866666666666</v>
+        <v>0.6097966666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6112</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6112</v>
+        <v>0.6202</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6112</v>
+        <v>0.6202</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6112</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>1235304.0281</v>
+        <v>823267.9745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6100166666666665</v>
+        <v>0.6099866666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1919,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6123</v>
+        <v>0.6112</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6261</v>
+        <v>0.6112</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6261</v>
+        <v>0.6112</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6123</v>
+        <v>0.6112</v>
       </c>
       <c r="F44" t="n">
-        <v>3289659.6596</v>
+        <v>1235304.0281</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6103066666666666</v>
+        <v>0.6100166666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6261</v>
+        <v>0.6123</v>
       </c>
       <c r="C45" t="n">
         <v>0.6261</v>
@@ -1963,13 +1963,13 @@
         <v>0.6261</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6261</v>
+        <v>0.6123</v>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>3289659.6596</v>
       </c>
       <c r="G45" t="n">
-        <v>0.61059</v>
+        <v>0.6103066666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1989,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6237</v>
+        <v>0.6261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6237</v>
+        <v>0.6261</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6237</v>
+        <v>0.6261</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6237</v>
+        <v>0.6261</v>
       </c>
       <c r="F46" t="n">
-        <v>1121477.1897</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6108399999999999</v>
+        <v>0.61059</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6214</v>
+        <v>0.6237</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6214</v>
+        <v>0.6237</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6214</v>
+        <v>0.6237</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6214</v>
+        <v>0.6237</v>
       </c>
       <c r="F47" t="n">
-        <v>1939150.5923</v>
+        <v>1121477.1897</v>
       </c>
       <c r="G47" t="n">
-        <v>0.611055</v>
+        <v>0.6108399999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6257</v>
+        <v>0.6214</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6257</v>
+        <v>0.6214</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6257</v>
+        <v>0.6214</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6257</v>
+        <v>0.6214</v>
       </c>
       <c r="F48" t="n">
-        <v>1652612.9613</v>
+        <v>1939150.5923</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6113350000000001</v>
+        <v>0.611055</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6257</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6257</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6257</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6257</v>
       </c>
       <c r="F49" t="n">
-        <v>1410728.452</v>
+        <v>1652612.9613</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6115666666666667</v>
+        <v>0.6113350000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6214</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6214</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>619883.0473</v>
+        <v>1410728.452</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6117566666666667</v>
+        <v>0.6115666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6217</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6217</v>
+        <v>0.6214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6217</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6217</v>
+        <v>0.6214</v>
       </c>
       <c r="F51" t="n">
-        <v>819625.6473</v>
+        <v>619883.0473</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6119716666666667</v>
+        <v>0.6117566666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2199,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6217</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6217</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6217</v>
       </c>
       <c r="F52" t="n">
-        <v>842.5897</v>
+        <v>819625.6473</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6122383333333334</v>
+        <v>0.6119716666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2234,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6132</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6132</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6132</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6132</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>708242.9408</v>
+        <v>842.5897</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6122983333333334</v>
+        <v>0.6122383333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2269,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6189</v>
+        <v>0.6132</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6189</v>
+        <v>0.6132</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6189</v>
+        <v>0.6132</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6189</v>
+        <v>0.6132</v>
       </c>
       <c r="F54" t="n">
-        <v>519966.2084</v>
+        <v>708242.9408</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6124533333333334</v>
+        <v>0.6122983333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6189</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6189</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6189</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6189</v>
       </c>
       <c r="F55" t="n">
-        <v>204085.2465</v>
+        <v>519966.2084</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6127116666666669</v>
+        <v>0.6124533333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2339,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6145</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6145</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6145</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6145</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>494499.721</v>
+        <v>204085.2465</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6127883333333334</v>
+        <v>0.6127116666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2374,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6257</v>
+        <v>0.6145</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6257</v>
+        <v>0.6145</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6257</v>
+        <v>0.6145</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6257</v>
+        <v>0.6145</v>
       </c>
       <c r="F57" t="n">
-        <v>4781.0791</v>
+        <v>494499.721</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6130500000000001</v>
+        <v>0.6127883333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6121</v>
+        <v>0.6257</v>
       </c>
       <c r="C58" t="n">
-        <v>0.612</v>
+        <v>0.6257</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6121</v>
+        <v>0.6257</v>
       </c>
       <c r="E58" t="n">
-        <v>0.612</v>
+        <v>0.6257</v>
       </c>
       <c r="F58" t="n">
-        <v>204085.2465</v>
+        <v>4781.0791</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6130883333333336</v>
+        <v>0.6130500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6209</v>
+        <v>0.6121</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6209</v>
+        <v>0.612</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6209</v>
+        <v>0.6121</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6209</v>
+        <v>0.612</v>
       </c>
       <c r="F59" t="n">
-        <v>1338527.3688</v>
+        <v>204085.2465</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6132750000000002</v>
+        <v>0.6130883333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6256</v>
+        <v>0.6209</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6256</v>
+        <v>0.6209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6256</v>
+        <v>0.6209</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6256</v>
+        <v>0.6209</v>
       </c>
       <c r="F60" t="n">
-        <v>913.7163</v>
+        <v>1338527.3688</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6135366666666668</v>
+        <v>0.6132750000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0.6256</v>
       </c>
       <c r="F61" t="n">
-        <v>115864.2886</v>
+        <v>913.7163</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6138050000000003</v>
+        <v>0.6135366666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6257</v>
+        <v>0.6256</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6257</v>
+        <v>0.6256</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6257</v>
+        <v>0.6256</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6257</v>
+        <v>0.6256</v>
       </c>
       <c r="F62" t="n">
-        <v>608283.2554</v>
+        <v>115864.2886</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6140983333333335</v>
+        <v>0.6138050000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2584,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.622</v>
+        <v>0.6257</v>
       </c>
       <c r="C63" t="n">
-        <v>0.622</v>
+        <v>0.6257</v>
       </c>
       <c r="D63" t="n">
-        <v>0.622</v>
+        <v>0.6257</v>
       </c>
       <c r="E63" t="n">
-        <v>0.622</v>
+        <v>0.6257</v>
       </c>
       <c r="F63" t="n">
-        <v>724033.2674</v>
+        <v>608283.2554</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6142983333333336</v>
+        <v>0.6140983333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2619,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="F64" t="n">
-        <v>825277.425</v>
+        <v>724033.2674</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6144166666666669</v>
+        <v>0.6142983333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2654,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6256</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6256</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6256</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6256</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>4781.8433</v>
+        <v>825277.425</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6146766666666669</v>
+        <v>0.6144166666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6227</v>
+        <v>0.6256</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6227</v>
+        <v>0.6256</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6227</v>
+        <v>0.6256</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6227</v>
+        <v>0.6256</v>
       </c>
       <c r="F66" t="n">
-        <v>1408529.1569</v>
+        <v>4781.8433</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6148916666666669</v>
+        <v>0.6146766666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2724,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6181</v>
+        <v>0.6227</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6181</v>
+        <v>0.6227</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6181</v>
+        <v>0.6227</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6181</v>
+        <v>0.6227</v>
       </c>
       <c r="F67" t="n">
-        <v>632575.116</v>
+        <v>1408529.1569</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6150483333333336</v>
+        <v>0.6148916666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6204</v>
+        <v>0.6181</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6204</v>
+        <v>0.6181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6204</v>
+        <v>0.6181</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6204</v>
+        <v>0.6181</v>
       </c>
       <c r="F68" t="n">
-        <v>1524725.8239</v>
+        <v>632575.116</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6152216666666669</v>
+        <v>0.6150483333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6261</v>
+        <v>0.6204</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6261</v>
+        <v>0.6204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6261</v>
+        <v>0.6204</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6261</v>
+        <v>0.6204</v>
       </c>
       <c r="F69" t="n">
-        <v>1060.1431</v>
+        <v>1524725.8239</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6155333333333336</v>
+        <v>0.6152216666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6126</v>
+        <v>0.6261</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6126</v>
+        <v>0.6261</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6126</v>
+        <v>0.6261</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6126</v>
+        <v>0.6261</v>
       </c>
       <c r="F70" t="n">
-        <v>1486810.2918</v>
+        <v>1060.1431</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6155950000000003</v>
+        <v>0.6155333333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.626</v>
+        <v>0.6126</v>
       </c>
       <c r="C71" t="n">
-        <v>0.626</v>
+        <v>0.6126</v>
       </c>
       <c r="D71" t="n">
-        <v>0.626</v>
+        <v>0.6126</v>
       </c>
       <c r="E71" t="n">
-        <v>0.626</v>
+        <v>0.6126</v>
       </c>
       <c r="F71" t="n">
-        <v>971.4173</v>
+        <v>1486810.2918</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6158800000000003</v>
+        <v>0.6155950000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2899,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6146</v>
+        <v>0.626</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6146</v>
+        <v>0.626</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6146</v>
+        <v>0.626</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6146</v>
+        <v>0.626</v>
       </c>
       <c r="F72" t="n">
-        <v>1706236.026</v>
+        <v>971.4173</v>
       </c>
       <c r="G72" t="n">
-        <v>0.615991666666667</v>
+        <v>0.6158800000000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.625</v>
+        <v>0.6146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.625</v>
+        <v>0.6146</v>
       </c>
       <c r="D73" t="n">
-        <v>0.625</v>
+        <v>0.6146</v>
       </c>
       <c r="E73" t="n">
-        <v>0.625</v>
+        <v>0.6146</v>
       </c>
       <c r="F73" t="n">
-        <v>1055.19</v>
+        <v>1706236.026</v>
       </c>
       <c r="G73" t="n">
-        <v>0.616241666666667</v>
+        <v>0.615991666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6106</v>
+        <v>0.625</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6106</v>
+        <v>0.625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6106</v>
+        <v>0.625</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6106</v>
+        <v>0.625</v>
       </c>
       <c r="F74" t="n">
-        <v>1104678.4103</v>
+        <v>1055.19</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6162533333333335</v>
+        <v>0.616241666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6231</v>
+        <v>0.6106</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6231</v>
+        <v>0.6106</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6231</v>
+        <v>0.6106</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6231</v>
+        <v>0.6106</v>
       </c>
       <c r="F75" t="n">
-        <v>420852.1436</v>
+        <v>1104678.4103</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6164783333333336</v>
+        <v>0.6162533333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6236</v>
+        <v>0.6231</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6236</v>
+        <v>0.6231</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6236</v>
+        <v>0.6231</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6236</v>
+        <v>0.6231</v>
       </c>
       <c r="F76" t="n">
-        <v>1893233.4519</v>
+        <v>420852.1436</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6167050000000003</v>
+        <v>0.6164783333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.611</v>
+        <v>0.6236</v>
       </c>
       <c r="C77" t="n">
-        <v>0.611</v>
+        <v>0.6236</v>
       </c>
       <c r="D77" t="n">
-        <v>0.611</v>
+        <v>0.6236</v>
       </c>
       <c r="E77" t="n">
-        <v>0.611</v>
+        <v>0.6236</v>
       </c>
       <c r="F77" t="n">
-        <v>100274.9005</v>
+        <v>1893233.4519</v>
       </c>
       <c r="G77" t="n">
-        <v>0.616761666666667</v>
+        <v>0.6167050000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6246</v>
+        <v>0.611</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6246</v>
+        <v>0.611</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6246</v>
+        <v>0.611</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6246</v>
+        <v>0.611</v>
       </c>
       <c r="F78" t="n">
-        <v>1586.7152</v>
+        <v>100274.9005</v>
       </c>
       <c r="G78" t="n">
-        <v>0.617046666666667</v>
+        <v>0.616761666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6119</v>
+        <v>0.6246</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6119</v>
+        <v>0.6246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6119</v>
+        <v>0.6246</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6119</v>
+        <v>0.6246</v>
       </c>
       <c r="F79" t="n">
-        <v>583070.5956</v>
+        <v>1586.7152</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6171166666666669</v>
+        <v>0.617046666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6119</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6119</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6119</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6119</v>
       </c>
       <c r="F80" t="n">
-        <v>1592.5278</v>
+        <v>583070.5956</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6173750000000002</v>
+        <v>0.6171166666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6217</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6217</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6217</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6217</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>1445548.7448</v>
+        <v>1592.5278</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6176033333333335</v>
+        <v>0.6173750000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3249,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6145</v>
+        <v>0.6217</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6145</v>
+        <v>0.6217</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6145</v>
+        <v>0.6217</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6145</v>
+        <v>0.6217</v>
       </c>
       <c r="F82" t="n">
-        <v>1992200.2247</v>
+        <v>1445548.7448</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6176833333333336</v>
+        <v>0.6176033333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3284,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.612</v>
+        <v>0.6145</v>
       </c>
       <c r="C83" t="n">
-        <v>0.612</v>
+        <v>0.6145</v>
       </c>
       <c r="D83" t="n">
-        <v>0.612</v>
+        <v>0.6145</v>
       </c>
       <c r="E83" t="n">
-        <v>0.612</v>
+        <v>0.6145</v>
       </c>
       <c r="F83" t="n">
-        <v>2039794.8165</v>
+        <v>1992200.2247</v>
       </c>
       <c r="G83" t="n">
-        <v>0.617741666666667</v>
+        <v>0.6176833333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6113</v>
+        <v>0.612</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6113</v>
+        <v>0.612</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6113</v>
+        <v>0.612</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6113</v>
+        <v>0.612</v>
       </c>
       <c r="F84" t="n">
-        <v>4570.1189</v>
+        <v>2039794.8165</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6177633333333337</v>
+        <v>0.617741666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6241</v>
+        <v>0.6113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6241</v>
+        <v>0.6113</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6241</v>
+        <v>0.6113</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6241</v>
+        <v>0.6113</v>
       </c>
       <c r="F85" t="n">
-        <v>2999.519307803237</v>
+        <v>4570.1189</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6180350000000003</v>
+        <v>0.6177633333333337</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3389,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6203</v>
+        <v>0.6241</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6203</v>
+        <v>0.6241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6203</v>
+        <v>0.6241</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6203</v>
+        <v>0.6241</v>
       </c>
       <c r="F86" t="n">
-        <v>1872338.4168</v>
+        <v>2999.519307803237</v>
       </c>
       <c r="G86" t="n">
-        <v>0.618206666666667</v>
+        <v>0.6180350000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6227</v>
+        <v>0.6203</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6227</v>
+        <v>0.6203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6227</v>
+        <v>0.6203</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6227</v>
+        <v>0.6203</v>
       </c>
       <c r="F87" t="n">
-        <v>1112866.4715</v>
+        <v>1872338.4168</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6184450000000002</v>
+        <v>0.618206666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3459,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6189</v>
+        <v>0.6227</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6189</v>
+        <v>0.6227</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6189</v>
+        <v>0.6227</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6189</v>
+        <v>0.6227</v>
       </c>
       <c r="F88" t="n">
-        <v>1855254.9218</v>
+        <v>1112866.4715</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6185933333333336</v>
+        <v>0.6184450000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6116</v>
+        <v>0.6189</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6116</v>
+        <v>0.6189</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6116</v>
+        <v>0.6189</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6116</v>
+        <v>0.6189</v>
       </c>
       <c r="F89" t="n">
-        <v>1420411.0723</v>
+        <v>1855254.9218</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6186250000000003</v>
+        <v>0.6185933333333336</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3529,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6118</v>
+        <v>0.6116</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6118</v>
+        <v>0.6116</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6118</v>
+        <v>0.6116</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6118</v>
+        <v>0.6116</v>
       </c>
       <c r="F90" t="n">
-        <v>445469.4446</v>
+        <v>1420411.0723</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6186550000000004</v>
+        <v>0.6186250000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3564,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6112</v>
+        <v>0.6118</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6241</v>
+        <v>0.6118</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6241</v>
+        <v>0.6118</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6112</v>
+        <v>0.6118</v>
       </c>
       <c r="F91" t="n">
-        <v>9964.112999999999</v>
+        <v>445469.4446</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6189266666666671</v>
+        <v>0.6186550000000004</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6185</v>
+        <v>0.6112</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6185</v>
+        <v>0.6241</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6185</v>
+        <v>0.6241</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6185</v>
+        <v>0.6112</v>
       </c>
       <c r="F92" t="n">
-        <v>1746881.9599</v>
+        <v>9964.112999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6190800000000004</v>
+        <v>0.6189266666666671</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3634,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6241</v>
+        <v>0.6185</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6241</v>
+        <v>0.6185</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6241</v>
+        <v>0.6185</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6241</v>
+        <v>0.6185</v>
       </c>
       <c r="F93" t="n">
-        <v>813.5517</v>
+        <v>1746881.9599</v>
       </c>
       <c r="G93" t="n">
-        <v>0.619316666666667</v>
+        <v>0.6190800000000004</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3669,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.62</v>
+        <v>0.6241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.62</v>
+        <v>0.6241</v>
       </c>
       <c r="D94" t="n">
-        <v>0.62</v>
+        <v>0.6241</v>
       </c>
       <c r="E94" t="n">
-        <v>0.62</v>
+        <v>0.6241</v>
       </c>
       <c r="F94" t="n">
-        <v>4867.741935483871</v>
+        <v>813.5517</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6194833333333336</v>
+        <v>0.619316666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3704,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6159</v>
+        <v>0.62</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6159</v>
+        <v>0.62</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6159</v>
+        <v>0.62</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6159</v>
+        <v>0.62</v>
       </c>
       <c r="F95" t="n">
-        <v>692479.2871</v>
+        <v>4867.741935483871</v>
       </c>
       <c r="G95" t="n">
-        <v>0.619581666666667</v>
+        <v>0.6194833333333336</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6123</v>
+        <v>0.6159</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6123</v>
+        <v>0.6159</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6123</v>
+        <v>0.6159</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6123</v>
+        <v>0.6159</v>
       </c>
       <c r="F96" t="n">
-        <v>1854501.5648</v>
+        <v>692479.2871</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6194533333333337</v>
+        <v>0.619581666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6112</v>
+        <v>0.6123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6112</v>
+        <v>0.6123</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6112</v>
+        <v>0.6123</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6112</v>
+        <v>0.6123</v>
       </c>
       <c r="F97" t="n">
-        <v>1705139.9473</v>
+        <v>1854501.5648</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6194000000000003</v>
+        <v>0.6194533333333337</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6196</v>
+        <v>0.6112</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6196</v>
+        <v>0.6112</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6196</v>
+        <v>0.6112</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6196</v>
+        <v>0.6112</v>
       </c>
       <c r="F98" t="n">
-        <v>1885355.6928</v>
+        <v>1705139.9473</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6195133333333336</v>
+        <v>0.6194000000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6117</v>
+        <v>0.6196</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6117</v>
+        <v>0.6196</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6117</v>
+        <v>0.6196</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6117</v>
+        <v>0.6196</v>
       </c>
       <c r="F99" t="n">
-        <v>1548845.5099</v>
+        <v>1885355.6928</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6195416666666669</v>
+        <v>0.6195133333333336</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6113</v>
+        <v>0.6117</v>
       </c>
       <c r="C100" t="n">
-        <v>0.61</v>
+        <v>0.6117</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6113</v>
+        <v>0.6117</v>
       </c>
       <c r="E100" t="n">
-        <v>0.61</v>
+        <v>0.6117</v>
       </c>
       <c r="F100" t="n">
-        <v>2233032.4454</v>
+        <v>1548845.5099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6194866666666669</v>
+        <v>0.6195416666666669</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3914,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6143</v>
+        <v>0.6113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6143</v>
+        <v>0.6113</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="F101" t="n">
-        <v>1069950.9809</v>
+        <v>2233032.4454</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6193916666666669</v>
+        <v>0.6194866666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6103</v>
+        <v>0.6143</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6103</v>
+        <v>0.6143</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6103</v>
+        <v>0.6143</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6103</v>
+        <v>0.6143</v>
       </c>
       <c r="F102" t="n">
-        <v>1644508.8814</v>
+        <v>1069950.9809</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6192266666666669</v>
+        <v>0.6193916666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6139</v>
+        <v>0.6103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6139</v>
+        <v>0.6103</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6139</v>
+        <v>0.6103</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6139</v>
+        <v>0.6103</v>
       </c>
       <c r="F103" t="n">
-        <v>1491251.6822</v>
+        <v>1644508.8814</v>
       </c>
       <c r="G103" t="n">
-        <v>0.619271666666667</v>
+        <v>0.6192266666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6196</v>
+        <v>0.6139</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6196</v>
+        <v>0.6139</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6196</v>
+        <v>0.6139</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6196</v>
+        <v>0.6139</v>
       </c>
       <c r="F104" t="n">
-        <v>1622396.5416</v>
+        <v>1491251.6822</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6191633333333336</v>
+        <v>0.619271666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6199</v>
+        <v>0.6196</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6199</v>
+        <v>0.6196</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6199</v>
+        <v>0.6196</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6199</v>
+        <v>0.6196</v>
       </c>
       <c r="F105" t="n">
-        <v>1544</v>
+        <v>1622396.5416</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6190600000000004</v>
+        <v>0.6191633333333336</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.62</v>
+        <v>0.6199</v>
       </c>
       <c r="C106" t="n">
         <v>0.6199</v>
       </c>
       <c r="D106" t="n">
-        <v>0.62</v>
+        <v>0.6199</v>
       </c>
       <c r="E106" t="n">
         <v>0.6199</v>
       </c>
       <c r="F106" t="n">
-        <v>4921.419277419355</v>
+        <v>1544</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6189966666666671</v>
+        <v>0.6190600000000004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4124,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.6199</v>
       </c>
-      <c r="C107" t="n">
-        <v>0.61</v>
-      </c>
       <c r="D107" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.6199</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.61</v>
-      </c>
       <c r="F107" t="n">
-        <v>3232.7096</v>
+        <v>4921.419277419355</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6188066666666671</v>
+        <v>0.6189966666666671</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6182</v>
+        <v>0.6199</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6182</v>
+        <v>0.61</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6182</v>
+        <v>0.6199</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6182</v>
+        <v>0.61</v>
       </c>
       <c r="F108" t="n">
-        <v>1220797.3337</v>
+        <v>3232.7096</v>
       </c>
       <c r="G108" t="n">
-        <v>0.618681666666667</v>
+        <v>0.6188066666666671</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4189,6 +4189,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1220797.3337</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.618681666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1959369.2466</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6095466666666672</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6120333333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1781702.867</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6095200000000006</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6118683333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>827.0643</v>
       </c>
       <c r="G4" t="n">
+        <v>0.609593333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.6117816666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1577095.651</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6095733333333339</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6117783333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>831.5947</v>
       </c>
       <c r="G6" t="n">
+        <v>0.6095733333333339</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6117149999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1393114.5436</v>
       </c>
       <c r="G7" t="n">
+        <v>0.6096400000000005</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6115533333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1876376.5022</v>
       </c>
       <c r="G8" t="n">
+        <v>0.6095866666666672</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6115399999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>837.1571</v>
       </c>
       <c r="G9" t="n">
+        <v>0.6096133333333338</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6113449999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>6676673.5094</v>
       </c>
       <c r="G10" t="n">
+        <v>0.6094666666666672</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6111833333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>839723.7457</v>
       </c>
       <c r="G11" t="n">
+        <v>0.6093933333333338</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.6110333333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1638929.0323</v>
       </c>
       <c r="G12" t="n">
+        <v>0.6093266666666672</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.6108233333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1158393.1288</v>
       </c>
       <c r="G13" t="n">
+        <v>0.6091866666666673</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.6107799999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>845.5238000000001</v>
       </c>
       <c r="G14" t="n">
+        <v>0.6092066666666672</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.6106449999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1797174.7237</v>
       </c>
       <c r="G15" t="n">
+        <v>0.6092200000000005</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.6105116666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>452085.7535</v>
       </c>
       <c r="G16" t="n">
+        <v>0.6092000000000006</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.610345</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>855.3108999999999</v>
       </c>
       <c r="G17" t="n">
+        <v>0.6092333333333338</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.6103000000000001</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1246861.8506</v>
       </c>
       <c r="G18" t="n">
+        <v>0.6092000000000005</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.6102083333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>11629.1667</v>
       </c>
       <c r="G19" t="n">
+        <v>0.6090333333333339</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.6100433333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1858313.0453</v>
       </c>
       <c r="G20" t="n">
+        <v>0.6089266666666672</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.6099383333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1980953.39</v>
       </c>
       <c r="G21" t="n">
+        <v>0.6088600000000005</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.6098916666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>671330.3169</v>
       </c>
       <c r="G22" t="n">
+        <v>0.6087400000000006</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.6098183333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>444903.4533</v>
       </c>
       <c r="G23" t="n">
+        <v>0.6088066666666673</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.6096683333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,22 +1289,21 @@
         <v>1019167.8796</v>
       </c>
       <c r="G24" t="n">
+        <v>0.6087066666666672</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.6095383333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.6097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1257,240 +1327,267 @@
         <v>874.5791</v>
       </c>
       <c r="G25" t="n">
+        <v>0.6088800000000005</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.6094983333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="F26" t="n">
+        <v>812202.0176</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6088066666666671</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6094333333333332</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>903.5476</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6088800000000004</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6094049999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1102781.9294</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6089133333333336</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6093583333333332</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>848.1223</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6089133333333336</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6093683333333332</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>0.6097</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="F30" t="n">
+        <v>910560.4346</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6089000000000003</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6093716666666665</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="F26" t="n">
-        <v>812202.0176</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.6094333333333332</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F31" t="n">
+        <v>857.9387</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6089266666666669</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6093799999999999</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.6097</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F27" t="n">
-        <v>903.5476</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.6094049999999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1102781.9294</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6093583333333332</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F29" t="n">
-        <v>848.1223</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6093683333333332</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="F30" t="n">
-        <v>910560.4346</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.6093716666666665</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F31" t="n">
-        <v>857.9387</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.6093799999999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1611,25 @@
         <v>1200275.4751</v>
       </c>
       <c r="G32" t="n">
+        <v>0.6087800000000002</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.6091766666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1653,29 @@
         <v>2005613.7557</v>
       </c>
       <c r="G33" t="n">
+        <v>0.6088933333333336</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.6091716666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1699,29 @@
         <v>1231273.7077</v>
       </c>
       <c r="G34" t="n">
+        <v>0.6090533333333336</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.6091666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1745,25 @@
         <v>33419.1615</v>
       </c>
       <c r="G35" t="n">
+        <v>0.6092066666666669</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.6091733333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1787,29 @@
         <v>1408703.1114</v>
       </c>
       <c r="G36" t="n">
+        <v>0.6092733333333336</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.6091799999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1833,29 @@
         <v>1234</v>
       </c>
       <c r="G37" t="n">
+        <v>0.6100733333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.6093633333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1879,21 @@
         <v>2030050.6393</v>
       </c>
       <c r="G38" t="n">
+        <v>0.6103866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.6094516666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1917,21 @@
         <v>2009442.9264</v>
       </c>
       <c r="G39" t="n">
+        <v>0.6106733333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.6095133333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1955,21 @@
         <v>419244.3291</v>
       </c>
       <c r="G40" t="n">
+        <v>0.6106733333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.6095416666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1993,21 @@
         <v>439172.5695</v>
       </c>
       <c r="G41" t="n">
+        <v>0.6110400000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.6095966666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2031,21 @@
         <v>810.7875</v>
       </c>
       <c r="G42" t="n">
+        <v>0.6117066666666668</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.6097966666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2069,21 @@
         <v>823267.9745</v>
       </c>
       <c r="G43" t="n">
+        <v>0.6124933333333336</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.6099866666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2107,21 @@
         <v>1235304.0281</v>
       </c>
       <c r="G44" t="n">
+        <v>0.6125733333333336</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.6100166666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2145,21 @@
         <v>3289659.6596</v>
       </c>
       <c r="G45" t="n">
+        <v>0.6136666666666669</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.6103066666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2183,21 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
+        <v>0.6147400000000002</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.61059</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2221,21 @@
         <v>1121477.1897</v>
       </c>
       <c r="G47" t="n">
+        <v>0.6158000000000002</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.6108399999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2259,21 @@
         <v>1939150.5923</v>
       </c>
       <c r="G48" t="n">
+        <v>0.616606666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.611055</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2297,21 @@
         <v>1652612.9613</v>
       </c>
       <c r="G49" t="n">
+        <v>0.6176600000000003</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.6113350000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2335,21 @@
         <v>1410728.452</v>
       </c>
       <c r="G50" t="n">
+        <v>0.6185600000000003</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.6115666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2373,21 @@
         <v>619883.0473</v>
       </c>
       <c r="G51" t="n">
+        <v>0.6193200000000003</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.6117566666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2411,21 @@
         <v>819625.6473</v>
       </c>
       <c r="G52" t="n">
+        <v>0.6194333333333337</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.6119716666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2449,21 @@
         <v>842.5897</v>
       </c>
       <c r="G53" t="n">
+        <v>0.6201733333333338</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.6122383333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2487,21 @@
         <v>708242.9408</v>
       </c>
       <c r="G54" t="n">
+        <v>0.6202000000000005</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.6122983333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2525,21 @@
         <v>519966.2084</v>
       </c>
       <c r="G55" t="n">
+        <v>0.6207933333333339</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.6124533333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2563,21 @@
         <v>204085.2465</v>
       </c>
       <c r="G56" t="n">
+        <v>0.6216066666666672</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.6127116666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2601,21 @@
         <v>494499.721</v>
       </c>
       <c r="G57" t="n">
+        <v>0.6212400000000006</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.6127883333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2639,21 @@
         <v>4781.0791</v>
       </c>
       <c r="G58" t="n">
+        <v>0.6216066666666672</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.6130500000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2677,21 @@
         <v>204085.2465</v>
       </c>
       <c r="G59" t="n">
+        <v>0.6216600000000005</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.6130883333333336</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2715,21 @@
         <v>1338527.3688</v>
       </c>
       <c r="G60" t="n">
+        <v>0.6213133333333339</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.6132750000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2753,21 @@
         <v>913.7163</v>
       </c>
       <c r="G61" t="n">
+        <v>0.6212800000000007</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.6135366666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2791,21 @@
         <v>115864.2886</v>
       </c>
       <c r="G62" t="n">
+        <v>0.6214066666666674</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.6138050000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2829,21 @@
         <v>608283.2554</v>
       </c>
       <c r="G63" t="n">
+        <v>0.6216933333333342</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.6140983333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2867,21 @@
         <v>724033.2674</v>
       </c>
       <c r="G64" t="n">
+        <v>0.6214466666666675</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.6142983333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2905,21 @@
         <v>825277.425</v>
       </c>
       <c r="G65" t="n">
+        <v>0.6209733333333342</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.6144166666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2943,21 @@
         <v>4781.8433</v>
       </c>
       <c r="G66" t="n">
+        <v>0.6212533333333342</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.6146766666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +2981,21 @@
         <v>1408529.1569</v>
       </c>
       <c r="G67" t="n">
+        <v>0.6213200000000009</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.6148916666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3019,21 @@
         <v>632575.116</v>
       </c>
       <c r="G68" t="n">
+        <v>0.6208266666666675</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.6150483333333336</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3057,21 @@
         <v>1524725.8239</v>
       </c>
       <c r="G69" t="n">
+        <v>0.6213066666666675</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.6152216666666669</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3095,21 @@
         <v>1060.1431</v>
       </c>
       <c r="G70" t="n">
+        <v>0.6217866666666674</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.6155333333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3133,21 @@
         <v>1486810.2918</v>
       </c>
       <c r="G71" t="n">
+        <v>0.6209266666666674</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.6155950000000003</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3171,21 @@
         <v>971.4173</v>
       </c>
       <c r="G72" t="n">
+        <v>0.6216933333333341</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.6158800000000003</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3209,21 @@
         <v>1706236.026</v>
       </c>
       <c r="G73" t="n">
+        <v>0.620953333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.615991666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3247,21 @@
         <v>1055.19</v>
       </c>
       <c r="G74" t="n">
+        <v>0.6218200000000007</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.616241666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3285,21 @@
         <v>1104678.4103</v>
       </c>
       <c r="G75" t="n">
+        <v>0.621133333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.6162533333333335</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3323,21 @@
         <v>420852.1436</v>
       </c>
       <c r="G76" t="n">
+        <v>0.6209666666666672</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.6164783333333336</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3361,21 @@
         <v>1893233.4519</v>
       </c>
       <c r="G77" t="n">
+        <v>0.6208333333333338</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.6167050000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3399,21 @@
         <v>100274.9005</v>
       </c>
       <c r="G78" t="n">
+        <v>0.6198533333333338</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.616761666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3437,21 @@
         <v>1586.7152</v>
       </c>
       <c r="G79" t="n">
+        <v>0.6200266666666672</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.617046666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3475,21 @@
         <v>583070.5956</v>
       </c>
       <c r="G80" t="n">
+        <v>0.6197266666666671</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.6171166666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3513,21 @@
         <v>1592.5278</v>
       </c>
       <c r="G81" t="n">
+        <v>0.6196533333333337</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.6173750000000002</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3551,21 @@
         <v>1445548.7448</v>
       </c>
       <c r="G82" t="n">
+        <v>0.6195866666666671</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.6176033333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3589,21 @@
         <v>1992200.2247</v>
       </c>
       <c r="G83" t="n">
+        <v>0.619346666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.6176833333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3627,21 @@
         <v>2039794.8165</v>
       </c>
       <c r="G84" t="n">
+        <v>0.618786666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.617741666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3665,21 @@
         <v>4570.1189</v>
       </c>
       <c r="G85" t="n">
+        <v>0.6178000000000005</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.6177633333333337</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3703,21 @@
         <v>2999.519307803237</v>
       </c>
       <c r="G86" t="n">
+        <v>0.618566666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.6180350000000003</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3741,21 @@
         <v>1872338.4168</v>
       </c>
       <c r="G87" t="n">
+        <v>0.6181866666666671</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.618206666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3779,21 @@
         <v>1112866.4715</v>
       </c>
       <c r="G88" t="n">
+        <v>0.6187266666666672</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.6184450000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3817,21 @@
         <v>1855254.9218</v>
       </c>
       <c r="G89" t="n">
+        <v>0.6183200000000005</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.6185933333333336</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3855,21 @@
         <v>1420411.0723</v>
       </c>
       <c r="G90" t="n">
+        <v>0.6183866666666672</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.6186250000000003</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3893,21 @@
         <v>445469.4446</v>
       </c>
       <c r="G91" t="n">
+        <v>0.6176333333333339</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.6186550000000004</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3931,21 @@
         <v>9964.112999999999</v>
       </c>
       <c r="G92" t="n">
+        <v>0.6176666666666673</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.6189266666666671</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +3969,21 @@
         <v>1746881.9599</v>
       </c>
       <c r="G93" t="n">
+        <v>0.6181666666666672</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.6190800000000004</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4007,21 @@
         <v>813.5517</v>
       </c>
       <c r="G94" t="n">
+        <v>0.618133333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.619316666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4045,21 @@
         <v>4867.741935483871</v>
       </c>
       <c r="G95" t="n">
+        <v>0.6186733333333339</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.6194833333333336</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4083,21 @@
         <v>692479.2871</v>
       </c>
       <c r="G96" t="n">
+        <v>0.6181000000000005</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.619581666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4121,21 @@
         <v>1854501.5648</v>
       </c>
       <c r="G97" t="n">
+        <v>0.6174733333333339</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.6194533333333337</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4159,21 @@
         <v>1705139.9473</v>
       </c>
       <c r="G98" t="n">
+        <v>0.6172533333333339</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.6194000000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4197,21 @@
         <v>1885355.6928</v>
       </c>
       <c r="G99" t="n">
+        <v>0.6177600000000005</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.6195133333333336</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4235,21 @@
         <v>1548845.5099</v>
       </c>
       <c r="G100" t="n">
+        <v>0.6177866666666673</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.6195416666666669</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4273,21 @@
         <v>2233032.4454</v>
       </c>
       <c r="G101" t="n">
+        <v>0.6168466666666672</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.6194866666666669</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4311,21 @@
         <v>1069950.9809</v>
       </c>
       <c r="G102" t="n">
+        <v>0.6164466666666671</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.6193916666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4349,21 @@
         <v>1644508.8814</v>
       </c>
       <c r="G103" t="n">
+        <v>0.6156200000000005</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.6192266666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4387,21 @@
         <v>1491251.6822</v>
       </c>
       <c r="G104" t="n">
+        <v>0.6152866666666672</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.619271666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4425,21 @@
         <v>1622396.5416</v>
       </c>
       <c r="G105" t="n">
+        <v>0.6158200000000006</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.6191633333333336</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4463,21 @@
         <v>1544</v>
       </c>
       <c r="G106" t="n">
+        <v>0.6163600000000005</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.6190600000000004</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4501,21 @@
         <v>4921.419277419355</v>
       </c>
       <c r="G107" t="n">
+        <v>0.6160800000000004</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.6189966666666671</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4539,21 @@
         <v>3232.7096</v>
       </c>
       <c r="G108" t="n">
+        <v>0.6155133333333337</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.6188066666666671</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4577,401 @@
         <v>1220797.3337</v>
       </c>
       <c r="G109" t="n">
+        <v>0.6151200000000003</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.618681666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1044.0672</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.6151200000000003</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.6186233333333336</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1804513.9774</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.6152800000000003</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.6185716666666669</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1289714.2537</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.6155000000000004</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.6184700000000003</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1245744.2772</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.6154200000000003</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.6182116666666669</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1608659.4889</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.6151933333333336</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.6182616666666669</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="F115" t="n">
+        <v>543175.9488</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.6151600000000002</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.6181333333333334</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1395420.2991</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.6154266666666669</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.6179416666666667</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="F117" t="n">
+        <v>628976.2284</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.6151466666666668</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.6178683333333335</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1604378.8081</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.6156933333333335</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.6177483333333333</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F119" t="n">
+        <v>848.7893</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.6161000000000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.6178816666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6096</v>
+        <v>0.6099</v>
       </c>
       <c r="F2" t="n">
-        <v>1664618.9482</v>
+        <v>1797174.7237</v>
       </c>
       <c r="G2" t="n">
-        <v>-10164425.58128698</v>
+        <v>-25018176.22538698</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6102</v>
+        <v>0.6096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6102</v>
+        <v>0.6096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6102</v>
+        <v>0.6096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6102</v>
+        <v>0.6096</v>
       </c>
       <c r="F3" t="n">
-        <v>1924993.9179</v>
+        <v>452085.7535</v>
       </c>
       <c r="G3" t="n">
-        <v>-8239431.66338698</v>
+        <v>-25470261.97888698</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1793490.8376</v>
+        <v>855.3108999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-10032922.50098698</v>
+        <v>-25469406.66798699</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6096</v>
+        <v>0.6076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6096</v>
+        <v>0.6076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6096</v>
+        <v>0.6076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6096</v>
+        <v>0.6076</v>
       </c>
       <c r="F5" t="n">
-        <v>784694.5618</v>
+        <v>1246861.8506</v>
       </c>
       <c r="G5" t="n">
-        <v>-10032922.50098698</v>
+        <v>-26716268.51858699</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6075</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609</v>
+        <v>0.6075</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.609</v>
+        <v>0.6075</v>
       </c>
       <c r="F6" t="n">
-        <v>303358.3497</v>
+        <v>11629.1667</v>
       </c>
       <c r="G6" t="n">
-        <v>-10336280.85068698</v>
+        <v>-26727897.68528699</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6091</v>
+        <v>0.6077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6091</v>
+        <v>0.6077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6091</v>
+        <v>0.6077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6091</v>
+        <v>0.6077</v>
       </c>
       <c r="F7" t="n">
-        <v>1883468.939</v>
+        <v>1858313.0453</v>
       </c>
       <c r="G7" t="n">
-        <v>-8452811.911686981</v>
+        <v>-24869584.63998699</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6091</v>
+        <v>0.609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6091</v>
+        <v>0.609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6091</v>
+        <v>0.609</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6091</v>
+        <v>0.609</v>
       </c>
       <c r="F8" t="n">
-        <v>1462899.1664</v>
+        <v>1980953.39</v>
       </c>
       <c r="G8" t="n">
-        <v>-8452811.911686981</v>
+        <v>-22888631.24998699</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6083</v>
+        <v>0.608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6083</v>
+        <v>0.608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6083</v>
+        <v>0.608</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6083</v>
+        <v>0.608</v>
       </c>
       <c r="F9" t="n">
-        <v>2106767.8807</v>
+        <v>671330.3169</v>
       </c>
       <c r="G9" t="n">
-        <v>-10559579.79238698</v>
+        <v>-23559961.56688699</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="E10" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="F10" t="n">
-        <v>1330.2972</v>
+        <v>444903.4533</v>
       </c>
       <c r="G10" t="n">
-        <v>-10558249.49518698</v>
+        <v>-23115058.11358699</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.608</v>
+        <v>0.6085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.608</v>
+        <v>0.6085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.608</v>
+        <v>0.6085</v>
       </c>
       <c r="E11" t="n">
-        <v>0.608</v>
+        <v>0.6085</v>
       </c>
       <c r="F11" t="n">
-        <v>132632.4312</v>
+        <v>1019167.8796</v>
       </c>
       <c r="G11" t="n">
-        <v>-10690881.92638698</v>
+        <v>-24134225.99318699</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6088</v>
+        <v>0.61</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6088</v>
+        <v>0.61</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6088</v>
+        <v>0.61</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6088</v>
+        <v>0.61</v>
       </c>
       <c r="F12" t="n">
-        <v>1048602.7315</v>
+        <v>874.5791</v>
       </c>
       <c r="G12" t="n">
-        <v>-9642279.194886981</v>
+        <v>-24133351.41408699</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="F13" t="n">
-        <v>1784358.5349</v>
+        <v>812202.0176</v>
       </c>
       <c r="G13" t="n">
-        <v>-7857920.65998698</v>
+        <v>-24945553.43168699</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="F14" t="n">
-        <v>670415.2868</v>
+        <v>903.5476</v>
       </c>
       <c r="G14" t="n">
-        <v>-8528335.946786981</v>
+        <v>-24944649.88408699</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6091</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6091</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6091</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6091</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>493140.589</v>
+        <v>1102781.9294</v>
       </c>
       <c r="G15" t="n">
-        <v>-8035195.357786981</v>
+        <v>-26047431.81348699</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6087</v>
+        <v>0.61</v>
       </c>
       <c r="F16" t="n">
-        <v>999403.1703</v>
+        <v>848.1223</v>
       </c>
       <c r="G16" t="n">
-        <v>-9034598.528086981</v>
+        <v>-26046583.69118699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,308 +971,369 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6085</v>
+        <v>0.6097</v>
       </c>
       <c r="F17" t="n">
-        <v>5538.1546</v>
+        <v>910560.4346</v>
       </c>
       <c r="G17" t="n">
-        <v>-9040136.682686981</v>
+        <v>-26957144.12578699</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.61</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6089</v>
+        <v>0.61</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6089</v>
+        <v>0.61</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6089</v>
+        <v>0.61</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6089</v>
+        <v>0.61</v>
       </c>
       <c r="F18" t="n">
-        <v>1322248.8422</v>
+        <v>857.9387</v>
       </c>
       <c r="G18" t="n">
-        <v>-7717887.840486981</v>
+        <v>-26956286.18708698</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6096</v>
+        <v>0.6078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6096</v>
+        <v>0.6078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6096</v>
+        <v>0.6078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6096</v>
+        <v>0.6078</v>
       </c>
       <c r="F19" t="n">
-        <v>490744.9066</v>
+        <v>1200275.4751</v>
       </c>
       <c r="G19" t="n">
-        <v>-7227142.933886981</v>
+        <v>-28156561.66218698</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="E20" t="n">
-        <v>0.61</v>
+        <v>0.6093</v>
       </c>
       <c r="F20" t="n">
-        <v>830.4901</v>
+        <v>2005613.7557</v>
       </c>
       <c r="G20" t="n">
-        <v>-7226312.443786981</v>
+        <v>-26150947.90648698</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.6078</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6088</v>
+        <v>0.6099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6088</v>
+        <v>0.6099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6088</v>
+        <v>0.6099</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6088</v>
+        <v>0.6099</v>
       </c>
       <c r="F21" t="n">
-        <v>1067109.3844</v>
+        <v>1231273.7077</v>
       </c>
       <c r="G21" t="n">
-        <v>-8293421.82818698</v>
+        <v>-24919674.19878699</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6095</v>
+        <v>0.61</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6097</v>
+        <v>0.61</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6095</v>
+        <v>0.61</v>
       </c>
       <c r="F22" t="n">
-        <v>503243.1881</v>
+        <v>33419.1615</v>
       </c>
       <c r="G22" t="n">
-        <v>-7790178.640086981</v>
+        <v>-24886255.03728699</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6096</v>
+        <v>0.61</v>
       </c>
       <c r="F23" t="n">
-        <v>2104148.9004</v>
+        <v>1408703.1114</v>
       </c>
       <c r="G23" t="n">
-        <v>-5686029.739686981</v>
+        <v>-24886255.03728699</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.61</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6096</v>
+        <v>0.62</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6096</v>
+        <v>0.62</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6096</v>
+        <v>0.62</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6096</v>
+        <v>0.62</v>
       </c>
       <c r="F24" t="n">
-        <v>1766932.445</v>
+        <v>1234</v>
       </c>
       <c r="G24" t="n">
-        <v>-5686029.739686981</v>
+        <v>-24885021.03728699</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.61</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.61</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.61</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.61</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>824.7054000000001</v>
+        <v>2030050.6393</v>
       </c>
       <c r="G25" t="n">
-        <v>-5685205.034286981</v>
+        <v>-26915071.67658699</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1342,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6099</v>
+        <v>0.6128</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6099</v>
+        <v>0.6128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6099</v>
+        <v>0.6128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6099</v>
+        <v>0.6128</v>
       </c>
       <c r="F26" t="n">
-        <v>861396.6674</v>
+        <v>2009442.9264</v>
       </c>
       <c r="G26" t="n">
-        <v>-6546601.70168698</v>
+        <v>-28924514.60298698</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,13 +1389,14 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6095</v>
+        <v>0.61</v>
       </c>
       <c r="C27" t="n">
         <v>0.61</v>
@@ -1317,13 +1405,13 @@
         <v>0.61</v>
       </c>
       <c r="E27" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="F27" t="n">
-        <v>77417.7941</v>
+        <v>419244.3291</v>
       </c>
       <c r="G27" t="n">
-        <v>-6469183.907586981</v>
+        <v>-29343758.93208699</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1425,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6097</v>
+        <v>0.6133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6097</v>
+        <v>0.6133</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6097</v>
+        <v>0.6133</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6097</v>
+        <v>0.6133</v>
       </c>
       <c r="F28" t="n">
-        <v>2100175.6707</v>
+        <v>439172.5695</v>
       </c>
       <c r="G28" t="n">
-        <v>-8569359.578286981</v>
+        <v>-28904586.36258699</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,63 +1461,69 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6097</v>
+        <v>0.62</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6097</v>
+        <v>0.62</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6097</v>
+        <v>0.62</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6097</v>
+        <v>0.62</v>
       </c>
       <c r="F29" t="n">
-        <v>803108.8391</v>
+        <v>810.7875</v>
       </c>
       <c r="G29" t="n">
-        <v>-8569359.578286981</v>
+        <v>-28903775.57508698</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6133</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6099</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6099</v>
+        <v>0.6202</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6099</v>
+        <v>0.6202</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6099</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>928018.4396</v>
+        <v>823267.9745</v>
       </c>
       <c r="G30" t="n">
-        <v>-7641341.138686981</v>
+        <v>-28080507.60058698</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1532,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6095</v>
+        <v>0.6112</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6095</v>
+        <v>0.6112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6095</v>
+        <v>0.6112</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6095</v>
+        <v>0.6112</v>
       </c>
       <c r="F31" t="n">
-        <v>1959369.2466</v>
+        <v>1235304.0281</v>
       </c>
       <c r="G31" t="n">
-        <v>-9600710.385286981</v>
+        <v>-29315811.62868698</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,103 +1574,124 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6081</v>
+        <v>0.6123</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6081</v>
+        <v>0.6261</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6081</v>
+        <v>0.6261</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6081</v>
+        <v>0.6123</v>
       </c>
       <c r="F32" t="n">
-        <v>1781702.867</v>
+        <v>3289659.6596</v>
       </c>
       <c r="G32" t="n">
-        <v>-11382413.25228698</v>
+        <v>-26026151.96908698</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.61</v>
+        <v>0.6261</v>
       </c>
       <c r="C33" t="n">
-        <v>0.61</v>
+        <v>0.6261</v>
       </c>
       <c r="D33" t="n">
-        <v>0.61</v>
+        <v>0.6261</v>
       </c>
       <c r="E33" t="n">
-        <v>0.61</v>
+        <v>0.6261</v>
       </c>
       <c r="F33" t="n">
-        <v>827.0643</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="n">
-        <v>-11381586.18798698</v>
+        <v>-26026151.96908698</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6093</v>
+        <v>0.6237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6093</v>
+        <v>0.6237</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6093</v>
+        <v>0.6237</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6093</v>
+        <v>0.6237</v>
       </c>
       <c r="F34" t="n">
-        <v>1577095.651</v>
+        <v>1121477.1897</v>
       </c>
       <c r="G34" t="n">
-        <v>-12958681.83898698</v>
+        <v>-27147629.15878698</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1700,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="C35" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="D35" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="E35" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="F35" t="n">
-        <v>831.5947</v>
+        <v>1939150.5923</v>
       </c>
       <c r="G35" t="n">
-        <v>-12957850.24428698</v>
+        <v>-29086779.75108698</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1742,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6098</v>
+        <v>0.6257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6098</v>
+        <v>0.6257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6098</v>
+        <v>0.6257</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6098</v>
+        <v>0.6257</v>
       </c>
       <c r="F36" t="n">
-        <v>1393114.5436</v>
+        <v>1652612.9613</v>
       </c>
       <c r="G36" t="n">
-        <v>-14350964.78788698</v>
+        <v>-27434166.78978698</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,68 +1784,82 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6087</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6087</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6087</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6087</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1876376.5022</v>
+        <v>1410728.452</v>
       </c>
       <c r="G37" t="n">
-        <v>-16227341.29008698</v>
+        <v>-28844895.24178698</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="D38" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.61</v>
+        <v>0.6214</v>
       </c>
       <c r="F38" t="n">
-        <v>837.1571</v>
+        <v>619883.0473</v>
       </c>
       <c r="G38" t="n">
-        <v>-16226504.13298698</v>
+        <v>-29464778.28908698</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,173 +1868,208 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.608</v>
+        <v>0.6217</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6217</v>
       </c>
       <c r="D39" t="n">
-        <v>0.608</v>
+        <v>0.6217</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6217</v>
       </c>
       <c r="F39" t="n">
-        <v>6676673.5094</v>
+        <v>819625.6473</v>
       </c>
       <c r="G39" t="n">
-        <v>-22903177.64238698</v>
+        <v>-28645152.64178698</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6089</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6089</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6089</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6089</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>839723.7457</v>
+        <v>842.5897</v>
       </c>
       <c r="G40" t="n">
-        <v>-22063453.89668698</v>
+        <v>-28644310.05208698</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6089</v>
+        <v>0.6132</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6089</v>
+        <v>0.6132</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6089</v>
+        <v>0.6132</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6089</v>
+        <v>0.6132</v>
       </c>
       <c r="F41" t="n">
-        <v>1638929.0323</v>
+        <v>708242.9408</v>
       </c>
       <c r="G41" t="n">
-        <v>-22063453.89668698</v>
+        <v>-29352552.99288698</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6079</v>
+        <v>0.6189</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6079</v>
+        <v>0.6189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6079</v>
+        <v>0.6189</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6079</v>
+        <v>0.6189</v>
       </c>
       <c r="F42" t="n">
-        <v>1158393.1288</v>
+        <v>519966.2084</v>
       </c>
       <c r="G42" t="n">
-        <v>-23221847.02548698</v>
+        <v>-28832586.78448698</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>845.5238000000001</v>
+        <v>204085.2465</v>
       </c>
       <c r="G43" t="n">
-        <v>-23221001.50168698</v>
+        <v>-28628501.53798698</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2078,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6099</v>
+        <v>0.6145</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6099</v>
+        <v>0.6145</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6099</v>
+        <v>0.6145</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6099</v>
+        <v>0.6145</v>
       </c>
       <c r="F44" t="n">
-        <v>1797174.7237</v>
+        <v>494499.721</v>
       </c>
       <c r="G44" t="n">
-        <v>-25018176.22538698</v>
+        <v>-29123001.25898698</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2120,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6096</v>
+        <v>0.6257</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6096</v>
+        <v>0.6257</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6096</v>
+        <v>0.6257</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6096</v>
+        <v>0.6257</v>
       </c>
       <c r="F45" t="n">
-        <v>452085.7535</v>
+        <v>4781.0791</v>
       </c>
       <c r="G45" t="n">
-        <v>-25470261.97888698</v>
+        <v>-29118220.17988698</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2162,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61</v>
+        <v>0.6121</v>
       </c>
       <c r="C46" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="D46" t="n">
-        <v>0.61</v>
+        <v>0.6121</v>
       </c>
       <c r="E46" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="F46" t="n">
-        <v>855.3108999999999</v>
+        <v>204085.2465</v>
       </c>
       <c r="G46" t="n">
-        <v>-25469406.66798699</v>
+        <v>-29322305.42638698</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2204,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6076</v>
+        <v>0.6209</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6076</v>
+        <v>0.6209</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6076</v>
+        <v>0.6209</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6076</v>
+        <v>0.6209</v>
       </c>
       <c r="F47" t="n">
-        <v>1246861.8506</v>
+        <v>1338527.3688</v>
       </c>
       <c r="G47" t="n">
-        <v>-26716268.51858699</v>
+        <v>-27983778.05758698</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2246,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6075</v>
+        <v>0.6256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6075</v>
+        <v>0.6256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6075</v>
+        <v>0.6256</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6075</v>
+        <v>0.6256</v>
       </c>
       <c r="F48" t="n">
-        <v>11629.1667</v>
+        <v>913.7163</v>
       </c>
       <c r="G48" t="n">
-        <v>-26727897.68528699</v>
+        <v>-27982864.34128698</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2288,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6077</v>
+        <v>0.6256</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6077</v>
+        <v>0.6256</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6077</v>
+        <v>0.6256</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6077</v>
+        <v>0.6256</v>
       </c>
       <c r="F49" t="n">
-        <v>1858313.0453</v>
+        <v>115864.2886</v>
       </c>
       <c r="G49" t="n">
-        <v>-24869584.63998699</v>
+        <v>-27982864.34128698</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2330,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.609</v>
+        <v>0.6257</v>
       </c>
       <c r="C50" t="n">
-        <v>0.609</v>
+        <v>0.6257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.609</v>
+        <v>0.6257</v>
       </c>
       <c r="E50" t="n">
-        <v>0.609</v>
+        <v>0.6257</v>
       </c>
       <c r="F50" t="n">
-        <v>1980953.39</v>
+        <v>608283.2554</v>
       </c>
       <c r="G50" t="n">
-        <v>-22888631.24998699</v>
+        <v>-27374581.08588699</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2372,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.608</v>
+        <v>0.622</v>
       </c>
       <c r="C51" t="n">
-        <v>0.608</v>
+        <v>0.622</v>
       </c>
       <c r="D51" t="n">
-        <v>0.608</v>
+        <v>0.622</v>
       </c>
       <c r="E51" t="n">
-        <v>0.608</v>
+        <v>0.622</v>
       </c>
       <c r="F51" t="n">
-        <v>671330.3169</v>
+        <v>724033.2674</v>
       </c>
       <c r="G51" t="n">
-        <v>-23559961.56688699</v>
+        <v>-28098614.35328699</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2414,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6097</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6097</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6097</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6097</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>444903.4533</v>
+        <v>825277.425</v>
       </c>
       <c r="G52" t="n">
-        <v>-23115058.11358699</v>
+        <v>-28923891.77828699</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2456,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6085</v>
+        <v>0.6256</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6085</v>
+        <v>0.6256</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6085</v>
+        <v>0.6256</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6085</v>
+        <v>0.6256</v>
       </c>
       <c r="F53" t="n">
-        <v>1019167.8796</v>
+        <v>4781.8433</v>
       </c>
       <c r="G53" t="n">
-        <v>-24134225.99318699</v>
+        <v>-28919109.93498699</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2498,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.61</v>
+        <v>0.6227</v>
       </c>
       <c r="C54" t="n">
-        <v>0.61</v>
+        <v>0.6227</v>
       </c>
       <c r="D54" t="n">
-        <v>0.61</v>
+        <v>0.6227</v>
       </c>
       <c r="E54" t="n">
-        <v>0.61</v>
+        <v>0.6227</v>
       </c>
       <c r="F54" t="n">
-        <v>874.5791</v>
+        <v>1408529.1569</v>
       </c>
       <c r="G54" t="n">
-        <v>-24133351.41408699</v>
+        <v>-30327639.09188699</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2540,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6078</v>
+        <v>0.6181</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6078</v>
+        <v>0.6181</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6078</v>
+        <v>0.6181</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6078</v>
+        <v>0.6181</v>
       </c>
       <c r="F55" t="n">
-        <v>812202.0176</v>
+        <v>632575.116</v>
       </c>
       <c r="G55" t="n">
-        <v>-24945553.43168699</v>
+        <v>-30960214.20788699</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2582,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.61</v>
+        <v>0.6204</v>
       </c>
       <c r="C56" t="n">
-        <v>0.61</v>
+        <v>0.6204</v>
       </c>
       <c r="D56" t="n">
-        <v>0.61</v>
+        <v>0.6204</v>
       </c>
       <c r="E56" t="n">
-        <v>0.61</v>
+        <v>0.6204</v>
       </c>
       <c r="F56" t="n">
-        <v>903.5476</v>
+        <v>1524725.8239</v>
       </c>
       <c r="G56" t="n">
-        <v>-24944649.88408699</v>
+        <v>-29435488.38398699</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2624,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6261</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6261</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6261</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6261</v>
       </c>
       <c r="F57" t="n">
-        <v>1102781.9294</v>
+        <v>1060.1431</v>
       </c>
       <c r="G57" t="n">
-        <v>-26047431.81348699</v>
+        <v>-29434428.24088699</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2666,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.61</v>
+        <v>0.6126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.61</v>
+        <v>0.6126</v>
       </c>
       <c r="D58" t="n">
-        <v>0.61</v>
+        <v>0.6126</v>
       </c>
       <c r="E58" t="n">
-        <v>0.61</v>
+        <v>0.6126</v>
       </c>
       <c r="F58" t="n">
-        <v>848.1223</v>
+        <v>1486810.2918</v>
       </c>
       <c r="G58" t="n">
-        <v>-26046583.69118699</v>
+        <v>-30921238.53268699</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,113 +2708,124 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6097</v>
+        <v>0.626</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6097</v>
+        <v>0.626</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6097</v>
+        <v>0.626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6097</v>
+        <v>0.626</v>
       </c>
       <c r="F59" t="n">
-        <v>910560.4346</v>
+        <v>971.4173</v>
       </c>
       <c r="G59" t="n">
-        <v>-26957144.12578699</v>
+        <v>-30920267.11538699</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+        <v>0.6133</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.61</v>
+        <v>0.6146</v>
       </c>
       <c r="C60" t="n">
-        <v>0.61</v>
+        <v>0.6146</v>
       </c>
       <c r="D60" t="n">
-        <v>0.61</v>
+        <v>0.6146</v>
       </c>
       <c r="E60" t="n">
-        <v>0.61</v>
+        <v>0.6146</v>
       </c>
       <c r="F60" t="n">
-        <v>857.9387</v>
+        <v>1706236.026</v>
       </c>
       <c r="G60" t="n">
-        <v>-26956286.18708698</v>
+        <v>-32626503.14138699</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.61</v>
+        <v>0.6133</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9971196804174142</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6078</v>
+        <v>0.625</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6078</v>
+        <v>0.625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6078</v>
+        <v>0.625</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6078</v>
+        <v>0.625</v>
       </c>
       <c r="F61" t="n">
-        <v>1200275.4751</v>
+        <v>1055.19</v>
       </c>
       <c r="G61" t="n">
-        <v>-28156561.66218698</v>
+        <v>-32625447.95138698</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2532,45 +2834,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6093</v>
+        <v>0.6106</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6093</v>
+        <v>0.6106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6093</v>
+        <v>0.6106</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6093</v>
+        <v>0.6106</v>
       </c>
       <c r="F62" t="n">
-        <v>2005613.7557</v>
+        <v>1104678.4103</v>
       </c>
       <c r="G62" t="n">
-        <v>-26150947.90648698</v>
+        <v>-33730126.36168698</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2578,28 +2875,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6099</v>
+        <v>0.6231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6099</v>
+        <v>0.6231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6099</v>
+        <v>0.6231</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6099</v>
+        <v>0.6231</v>
       </c>
       <c r="F63" t="n">
-        <v>1231273.7077</v>
+        <v>420852.1436</v>
       </c>
       <c r="G63" t="n">
-        <v>-24919674.19878699</v>
+        <v>-33309274.21808698</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,153 +2911,137 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.61</v>
+        <v>0.6236</v>
       </c>
       <c r="C64" t="n">
-        <v>0.61</v>
+        <v>0.6236</v>
       </c>
       <c r="D64" t="n">
-        <v>0.61</v>
+        <v>0.6236</v>
       </c>
       <c r="E64" t="n">
-        <v>0.61</v>
+        <v>0.6236</v>
       </c>
       <c r="F64" t="n">
-        <v>33419.1615</v>
+        <v>1893233.4519</v>
       </c>
       <c r="G64" t="n">
-        <v>-24886255.03728699</v>
+        <v>-31416040.76618698</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.6099</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="C65" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="D65" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="E65" t="n">
-        <v>0.61</v>
+        <v>0.611</v>
       </c>
       <c r="F65" t="n">
-        <v>1408703.1114</v>
+        <v>100274.9005</v>
       </c>
       <c r="G65" t="n">
-        <v>-24886255.03728699</v>
+        <v>-31516315.66668698</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.62</v>
+        <v>0.6246</v>
       </c>
       <c r="C66" t="n">
-        <v>0.62</v>
+        <v>0.6246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.62</v>
+        <v>0.6246</v>
       </c>
       <c r="E66" t="n">
-        <v>0.62</v>
+        <v>0.6246</v>
       </c>
       <c r="F66" t="n">
-        <v>1234</v>
+        <v>1586.7152</v>
       </c>
       <c r="G66" t="n">
-        <v>-24885021.03728699</v>
+        <v>-31514728.95148698</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6119</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6119</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6119</v>
       </c>
       <c r="F67" t="n">
-        <v>2030050.6393</v>
+        <v>583070.5956</v>
       </c>
       <c r="G67" t="n">
-        <v>-26915071.67658699</v>
+        <v>-32097799.54708698</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,28 +3055,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6128</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6128</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6128</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6128</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>2009442.9264</v>
+        <v>1592.5278</v>
       </c>
       <c r="G68" t="n">
-        <v>-28924514.60298698</v>
+        <v>-32096207.01928698</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,28 +3091,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.61</v>
+        <v>0.6217</v>
       </c>
       <c r="C69" t="n">
-        <v>0.61</v>
+        <v>0.6217</v>
       </c>
       <c r="D69" t="n">
-        <v>0.61</v>
+        <v>0.6217</v>
       </c>
       <c r="E69" t="n">
-        <v>0.61</v>
+        <v>0.6217</v>
       </c>
       <c r="F69" t="n">
-        <v>419244.3291</v>
+        <v>1445548.7448</v>
       </c>
       <c r="G69" t="n">
-        <v>-29343758.93208699</v>
+        <v>-33541755.76408698</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2843,28 +3127,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6133</v>
+        <v>0.6145</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6133</v>
+        <v>0.6145</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6133</v>
+        <v>0.6145</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6133</v>
+        <v>0.6145</v>
       </c>
       <c r="F70" t="n">
-        <v>439172.5695</v>
+        <v>1992200.2247</v>
       </c>
       <c r="G70" t="n">
-        <v>-28904586.36258699</v>
+        <v>-35533955.98878698</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2878,28 +3163,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="C71" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="D71" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="E71" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="F71" t="n">
-        <v>810.7875</v>
+        <v>2039794.8165</v>
       </c>
       <c r="G71" t="n">
-        <v>-28903775.57508698</v>
+        <v>-37573750.80528698</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,28 +3199,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.6113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6202</v>
+        <v>0.6113</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6202</v>
+        <v>0.6113</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.6113</v>
       </c>
       <c r="F72" t="n">
-        <v>823267.9745</v>
+        <v>4570.1189</v>
       </c>
       <c r="G72" t="n">
-        <v>-28080507.60058698</v>
+        <v>-37578320.92418698</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2948,28 +3235,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6112</v>
+        <v>0.6241</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6112</v>
+        <v>0.6241</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6112</v>
+        <v>0.6241</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6112</v>
+        <v>0.6241</v>
       </c>
       <c r="F73" t="n">
-        <v>1235304.0281</v>
+        <v>2999.519307803237</v>
       </c>
       <c r="G73" t="n">
-        <v>-29315811.62868698</v>
+        <v>-37575321.40487918</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2983,28 +3271,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6123</v>
+        <v>0.6203</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6261</v>
+        <v>0.6203</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6261</v>
+        <v>0.6203</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6123</v>
+        <v>0.6203</v>
       </c>
       <c r="F74" t="n">
-        <v>3289659.6596</v>
+        <v>1872338.4168</v>
       </c>
       <c r="G74" t="n">
-        <v>-26026151.96908698</v>
+        <v>-39447659.82167918</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,28 +3307,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6261</v>
+        <v>0.6227</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6261</v>
+        <v>0.6227</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6261</v>
+        <v>0.6227</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6261</v>
+        <v>0.6227</v>
       </c>
       <c r="F75" t="n">
-        <v>10000</v>
+        <v>1112866.4715</v>
       </c>
       <c r="G75" t="n">
-        <v>-26026151.96908698</v>
+        <v>-38334793.35017918</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3053,28 +3343,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6237</v>
+        <v>0.6189</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6237</v>
+        <v>0.6189</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6237</v>
+        <v>0.6189</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6237</v>
+        <v>0.6189</v>
       </c>
       <c r="F76" t="n">
-        <v>1121477.1897</v>
+        <v>1855254.9218</v>
       </c>
       <c r="G76" t="n">
-        <v>-27147629.15878698</v>
+        <v>-40190048.27197918</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3088,28 +3379,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6214</v>
+        <v>0.6116</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6214</v>
+        <v>0.6116</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6214</v>
+        <v>0.6116</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6214</v>
+        <v>0.6116</v>
       </c>
       <c r="F77" t="n">
-        <v>1939150.5923</v>
+        <v>1420411.0723</v>
       </c>
       <c r="G77" t="n">
-        <v>-29086779.75108698</v>
+        <v>-41610459.34427918</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3123,28 +3415,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6257</v>
+        <v>0.6118</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6257</v>
+        <v>0.6118</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6257</v>
+        <v>0.6118</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6257</v>
+        <v>0.6118</v>
       </c>
       <c r="F78" t="n">
-        <v>1652612.9613</v>
+        <v>445469.4446</v>
       </c>
       <c r="G78" t="n">
-        <v>-27434166.78978698</v>
+        <v>-41164989.89967918</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3158,28 +3451,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6112</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6241</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6241</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6112</v>
       </c>
       <c r="F79" t="n">
-        <v>1410728.452</v>
+        <v>9964.112999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-28844895.24178698</v>
+        <v>-41155025.78667919</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3193,28 +3487,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6185</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6214</v>
+        <v>0.6185</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6214</v>
+        <v>0.6185</v>
       </c>
       <c r="F80" t="n">
-        <v>619883.0473</v>
+        <v>1746881.9599</v>
       </c>
       <c r="G80" t="n">
-        <v>-29464778.28908698</v>
+        <v>-42901907.74657919</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3228,28 +3523,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6217</v>
+        <v>0.6241</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6217</v>
+        <v>0.6241</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6217</v>
+        <v>0.6241</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6217</v>
+        <v>0.6241</v>
       </c>
       <c r="F81" t="n">
-        <v>819625.6473</v>
+        <v>813.5517</v>
       </c>
       <c r="G81" t="n">
-        <v>-28645152.64178698</v>
+        <v>-42901094.19487918</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3263,28 +3559,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F82" t="n">
-        <v>842.5897</v>
+        <v>4867.741935483871</v>
       </c>
       <c r="G82" t="n">
-        <v>-28644310.05208698</v>
+        <v>-42905961.93681467</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3298,28 +3595,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6132</v>
+        <v>0.6159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6132</v>
+        <v>0.6159</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6132</v>
+        <v>0.6159</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6132</v>
+        <v>0.6159</v>
       </c>
       <c r="F83" t="n">
-        <v>708242.9408</v>
+        <v>692479.2871</v>
       </c>
       <c r="G83" t="n">
-        <v>-29352552.99288698</v>
+        <v>-43598441.22391467</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3333,28 +3631,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6189</v>
+        <v>0.6123</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6189</v>
+        <v>0.6123</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6189</v>
+        <v>0.6123</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6189</v>
+        <v>0.6123</v>
       </c>
       <c r="F84" t="n">
-        <v>519966.2084</v>
+        <v>1854501.5648</v>
       </c>
       <c r="G84" t="n">
-        <v>-28832586.78448698</v>
+        <v>-45452942.78871467</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3368,28 +3667,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6112</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6112</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6112</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6112</v>
       </c>
       <c r="F85" t="n">
-        <v>204085.2465</v>
+        <v>1705139.9473</v>
       </c>
       <c r="G85" t="n">
-        <v>-28628501.53798698</v>
+        <v>-47158082.73601467</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3403,28 +3703,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6145</v>
+        <v>0.6196</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6145</v>
+        <v>0.6196</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6145</v>
+        <v>0.6196</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6145</v>
+        <v>0.6196</v>
       </c>
       <c r="F86" t="n">
-        <v>494499.721</v>
+        <v>1885355.6928</v>
       </c>
       <c r="G86" t="n">
-        <v>-29123001.25898698</v>
+        <v>-45272727.04321467</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3438,28 +3739,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6257</v>
+        <v>0.6117</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6257</v>
+        <v>0.6117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6257</v>
+        <v>0.6117</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6257</v>
+        <v>0.6117</v>
       </c>
       <c r="F87" t="n">
-        <v>4781.0791</v>
+        <v>1548845.5099</v>
       </c>
       <c r="G87" t="n">
-        <v>-29118220.17988698</v>
+        <v>-46821572.55311467</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,28 +3775,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6121</v>
+        <v>0.6113</v>
       </c>
       <c r="C88" t="n">
-        <v>0.612</v>
+        <v>0.61</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6121</v>
+        <v>0.6113</v>
       </c>
       <c r="E88" t="n">
-        <v>0.612</v>
+        <v>0.61</v>
       </c>
       <c r="F88" t="n">
-        <v>204085.2465</v>
+        <v>2233032.4454</v>
       </c>
       <c r="G88" t="n">
-        <v>-29322305.42638698</v>
+        <v>-49054604.99851467</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,28 +3811,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6209</v>
+        <v>0.6143</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6209</v>
+        <v>0.6143</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6209</v>
+        <v>0.6143</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6209</v>
+        <v>0.6143</v>
       </c>
       <c r="F89" t="n">
-        <v>1338527.3688</v>
+        <v>1069950.9809</v>
       </c>
       <c r="G89" t="n">
-        <v>-27983778.05758698</v>
+        <v>-47984654.01761467</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3543,28 +3847,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6256</v>
+        <v>0.6103</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6256</v>
+        <v>0.6103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6256</v>
+        <v>0.6103</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6256</v>
+        <v>0.6103</v>
       </c>
       <c r="F90" t="n">
-        <v>913.7163</v>
+        <v>1644508.8814</v>
       </c>
       <c r="G90" t="n">
-        <v>-27982864.34128698</v>
+        <v>-49629162.89901467</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3578,28 +3883,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6256</v>
+        <v>0.6139</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6256</v>
+        <v>0.6139</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6256</v>
+        <v>0.6139</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6256</v>
+        <v>0.6139</v>
       </c>
       <c r="F91" t="n">
-        <v>115864.2886</v>
+        <v>1491251.6822</v>
       </c>
       <c r="G91" t="n">
-        <v>-27982864.34128698</v>
+        <v>-48137911.21681467</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,28 +3919,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6257</v>
+        <v>0.6196</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6257</v>
+        <v>0.6196</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6257</v>
+        <v>0.6196</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6257</v>
+        <v>0.6196</v>
       </c>
       <c r="F92" t="n">
-        <v>608283.2554</v>
+        <v>1622396.5416</v>
       </c>
       <c r="G92" t="n">
-        <v>-27374581.08588699</v>
+        <v>-46515514.67521466</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3648,28 +3955,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.622</v>
+        <v>0.6199</v>
       </c>
       <c r="C93" t="n">
-        <v>0.622</v>
+        <v>0.6199</v>
       </c>
       <c r="D93" t="n">
-        <v>0.622</v>
+        <v>0.6199</v>
       </c>
       <c r="E93" t="n">
-        <v>0.622</v>
+        <v>0.6199</v>
       </c>
       <c r="F93" t="n">
-        <v>724033.2674</v>
+        <v>1544</v>
       </c>
       <c r="G93" t="n">
-        <v>-28098614.35328699</v>
+        <v>-46513970.67521466</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3683,28 +3991,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6199</v>
       </c>
       <c r="F94" t="n">
-        <v>825277.425</v>
+        <v>4921.419277419355</v>
       </c>
       <c r="G94" t="n">
-        <v>-28923891.77828699</v>
+        <v>-46513970.67521466</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3718,28 +4027,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6256</v>
+        <v>0.6199</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6256</v>
+        <v>0.6199</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="F95" t="n">
-        <v>4781.8433</v>
+        <v>3232.7096</v>
       </c>
       <c r="G95" t="n">
-        <v>-28919109.93498699</v>
+        <v>-46517203.38481466</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3753,28 +4063,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6227</v>
+        <v>0.6182</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6227</v>
+        <v>0.6182</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6227</v>
+        <v>0.6182</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6227</v>
+        <v>0.6182</v>
       </c>
       <c r="F96" t="n">
-        <v>1408529.1569</v>
+        <v>1220797.3337</v>
       </c>
       <c r="G96" t="n">
-        <v>-30327639.09188699</v>
+        <v>-45296406.05111466</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3788,28 +4099,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6181</v>
+        <v>0.62</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6181</v>
+        <v>0.62</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6181</v>
+        <v>0.62</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6181</v>
+        <v>0.62</v>
       </c>
       <c r="F97" t="n">
-        <v>632575.116</v>
+        <v>1044.0672</v>
       </c>
       <c r="G97" t="n">
-        <v>-30960214.20788699</v>
+        <v>-45295361.98391467</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,28 +4135,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6204</v>
+        <v>0.6183</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6204</v>
+        <v>0.6183</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6204</v>
+        <v>0.6183</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6204</v>
+        <v>0.6183</v>
       </c>
       <c r="F98" t="n">
-        <v>1524725.8239</v>
+        <v>1804513.9774</v>
       </c>
       <c r="G98" t="n">
-        <v>-29435488.38398699</v>
+        <v>-47099875.96131466</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3858,28 +4171,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6261</v>
+        <v>0.6156</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6261</v>
+        <v>0.6156</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6261</v>
+        <v>0.6156</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6261</v>
+        <v>0.6156</v>
       </c>
       <c r="F99" t="n">
-        <v>1060.1431</v>
+        <v>1289714.2537</v>
       </c>
       <c r="G99" t="n">
-        <v>-29434428.24088699</v>
+        <v>-48389590.21501467</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3893,28 +4207,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6126</v>
+        <v>0.6101</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6126</v>
+        <v>0.61</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6126</v>
+        <v>0.6101</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6126</v>
+        <v>0.61</v>
       </c>
       <c r="F100" t="n">
-        <v>1486810.2918</v>
+        <v>1245744.2772</v>
       </c>
       <c r="G100" t="n">
-        <v>-30921238.53268699</v>
+        <v>-49635334.49221466</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3928,28 +4243,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.626</v>
+        <v>0.6162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.626</v>
+        <v>0.6162</v>
       </c>
       <c r="D101" t="n">
-        <v>0.626</v>
+        <v>0.6162</v>
       </c>
       <c r="E101" t="n">
-        <v>0.626</v>
+        <v>0.6162</v>
       </c>
       <c r="F101" t="n">
-        <v>971.4173</v>
+        <v>1608659.4889</v>
       </c>
       <c r="G101" t="n">
-        <v>-30920267.11538699</v>
+        <v>-48026675.00331467</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,28 +4279,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6146</v>
+        <v>0.6112</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6146</v>
+        <v>0.6112</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6146</v>
+        <v>0.6112</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6146</v>
+        <v>0.6112</v>
       </c>
       <c r="F102" t="n">
-        <v>1706236.026</v>
+        <v>543175.9488</v>
       </c>
       <c r="G102" t="n">
-        <v>-32626503.14138699</v>
+        <v>-48569850.95211466</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3998,28 +4315,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.625</v>
+        <v>0.614</v>
       </c>
       <c r="C103" t="n">
-        <v>0.625</v>
+        <v>0.614</v>
       </c>
       <c r="D103" t="n">
-        <v>0.625</v>
+        <v>0.614</v>
       </c>
       <c r="E103" t="n">
-        <v>0.625</v>
+        <v>0.614</v>
       </c>
       <c r="F103" t="n">
-        <v>1055.19</v>
+        <v>1395420.2991</v>
       </c>
       <c r="G103" t="n">
-        <v>-32625447.95138698</v>
+        <v>-47174430.65301467</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4033,28 +4351,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6106</v>
+        <v>0.6101</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6106</v>
+        <v>0.6101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6106</v>
+        <v>0.6101</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6106</v>
+        <v>0.6101</v>
       </c>
       <c r="F104" t="n">
-        <v>1104678.4103</v>
+        <v>628976.2284</v>
       </c>
       <c r="G104" t="n">
-        <v>-33730126.36168698</v>
+        <v>-47803406.88141467</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4068,28 +4387,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6231</v>
+        <v>0.6185</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6231</v>
+        <v>0.6185</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6231</v>
+        <v>0.6185</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6231</v>
+        <v>0.6185</v>
       </c>
       <c r="F105" t="n">
-        <v>420852.1436</v>
+        <v>1604378.8081</v>
       </c>
       <c r="G105" t="n">
-        <v>-33309274.21808698</v>
+        <v>-46199028.07331467</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4103,28 +4423,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6236</v>
+        <v>0.62</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6236</v>
+        <v>0.62</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6236</v>
+        <v>0.62</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6236</v>
+        <v>0.62</v>
       </c>
       <c r="F106" t="n">
-        <v>1893233.4519</v>
+        <v>848.7893</v>
       </c>
       <c r="G106" t="n">
-        <v>-31416040.76618698</v>
+        <v>-46198179.28401466</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4138,1476 +4459,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="F107" t="n">
-        <v>100274.9005</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-31516315.66668698</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.6246</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.6246</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.6246</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.6246</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1586.7152</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-31514728.95148698</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.6119</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.6119</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.6119</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.6119</v>
-      </c>
-      <c r="F109" t="n">
-        <v>583070.5956</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-32097799.54708698</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.6245000000000001</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.6245000000000001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.6245000000000001</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.6245000000000001</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1592.5278</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-32096207.01928698</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.6217</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1445548.7448</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-33541755.76408698</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1992200.2247</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-35533955.98878698</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2039794.8165</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-37573750.80528698</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4570.1189</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-37578320.92418698</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2999.519307803237</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-37575321.40487918</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.6203</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.6203</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.6203</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.6203</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1872338.4168</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-39447659.82167918</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.6227</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.6227</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.6227</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.6227</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1112866.4715</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-38334793.35017918</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.6189</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1855254.9218</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-40190048.27197918</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.6116</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.6116</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.6116</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.6116</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1420411.0723</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-41610459.34427918</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.6118</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.6118</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.6118</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.6118</v>
-      </c>
-      <c r="F120" t="n">
-        <v>445469.4446</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-41164989.89967918</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="F121" t="n">
-        <v>9964.112999999999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-41155025.78667919</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1746881.9599</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-42901907.74657919</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.6241</v>
-      </c>
-      <c r="F123" t="n">
-        <v>813.5517</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-42901094.19487918</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4867.741935483871</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-42905961.93681467</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="F125" t="n">
-        <v>692479.2871</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-43598441.22391467</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.6123</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.6123</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.6123</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.6123</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1854501.5648</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-45452942.78871467</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1705139.9473</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-47158082.73601467</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1885355.6928</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-45272727.04321467</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.6117</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.6117</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.6117</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.6117</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1548845.5099</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-46821572.55311467</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.6113</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2233032.4454</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-49054604.99851467</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.6143</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.6143</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.6143</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.6143</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1069950.9809</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-47984654.01761467</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.6103</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.6103</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.6103</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.6103</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1644508.8814</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-49629162.89901467</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.6139</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.6139</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.6139</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.6139</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1491251.6822</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-48137911.21681467</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.6196</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1622396.5416</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-46515514.67521466</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1544</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-46513970.67521466</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4921.419277419355</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-46513970.67521466</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.6199</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3232.7096</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-46517203.38481466</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.6182</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1220797.3337</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-45296406.05111466</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1044.0672</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-45295361.98391467</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.6183</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1804513.9774</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-47099875.96131466</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1289714.2537</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-48389590.21501467</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1245744.2772</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-49635334.49221466</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.6162</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.6162</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.6162</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.6162</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1608659.4889</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-48026675.00331467</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.6112</v>
-      </c>
-      <c r="F144" t="n">
-        <v>543175.9488</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-48569850.95211466</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1395420.2991</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-47174430.65301467</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="F146" t="n">
-        <v>628976.2284</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-47803406.88141467</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.6185</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1604378.8081</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-46199028.07331467</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F148" t="n">
-        <v>848.7893</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-46198179.28401466</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6099</v>
+        <v>0.6152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6099</v>
+        <v>0.6152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6099</v>
+        <v>0.6152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6099</v>
+        <v>0.6152</v>
       </c>
       <c r="F2" t="n">
-        <v>1797174.7237</v>
+        <v>887590.0147000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-25018176.22538698</v>
+        <v>-9700739.142686984</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -477,19 +477,19 @@
         <v>0.6096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6096</v>
+        <v>0.6095</v>
       </c>
       <c r="D3" t="n">
         <v>0.6096</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6096</v>
+        <v>0.6095</v>
       </c>
       <c r="F3" t="n">
-        <v>452085.7535</v>
+        <v>1296548.8371</v>
       </c>
       <c r="G3" t="n">
-        <v>-25470261.97888698</v>
+        <v>-10997287.97978698</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.61</v>
+        <v>0.6138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.61</v>
+        <v>0.6138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.6138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
+        <v>0.6138</v>
       </c>
       <c r="F4" t="n">
-        <v>855.3108999999999</v>
+        <v>943696.8704</v>
       </c>
       <c r="G4" t="n">
-        <v>-25469406.66798699</v>
+        <v>-10053591.10938698</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6076</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6076</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6076</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6076</v>
+        <v>0.6195000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1246861.8506</v>
+        <v>2039148.9524</v>
       </c>
       <c r="G5" t="n">
-        <v>-26716268.51858699</v>
+        <v>-8014442.156986983</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6075</v>
+        <v>0.6095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6075</v>
+        <v>0.6095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6075</v>
+        <v>0.6095</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6075</v>
+        <v>0.6095</v>
       </c>
       <c r="F6" t="n">
-        <v>11629.1667</v>
+        <v>59130.4836</v>
       </c>
       <c r="G6" t="n">
-        <v>-26727897.68528699</v>
+        <v>-8073572.640586982</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6077</v>
+        <v>0.6217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6077</v>
+        <v>0.6217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6077</v>
+        <v>0.6217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6077</v>
+        <v>0.6217</v>
       </c>
       <c r="F7" t="n">
-        <v>1858313.0453</v>
+        <v>1613675.9805</v>
       </c>
       <c r="G7" t="n">
-        <v>-24869584.63998699</v>
+        <v>-6459896.660086982</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.609</v>
+        <v>0.6171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.609</v>
+        <v>0.6171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.609</v>
+        <v>0.6171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.609</v>
+        <v>0.6171</v>
       </c>
       <c r="F8" t="n">
-        <v>1980953.39</v>
+        <v>657119.1681</v>
       </c>
       <c r="G8" t="n">
-        <v>-22888631.24998699</v>
+        <v>-7117015.828186982</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.608</v>
+        <v>0.6179</v>
       </c>
       <c r="C9" t="n">
-        <v>0.608</v>
+        <v>0.6179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.608</v>
+        <v>0.6179</v>
       </c>
       <c r="E9" t="n">
-        <v>0.608</v>
+        <v>0.6179</v>
       </c>
       <c r="F9" t="n">
-        <v>671330.3169</v>
+        <v>1384962.9992</v>
       </c>
       <c r="G9" t="n">
-        <v>-23559961.56688699</v>
+        <v>-5732052.828986982</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6097</v>
+        <v>0.6214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6097</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6097</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6097</v>
+        <v>0.6214</v>
       </c>
       <c r="F10" t="n">
-        <v>444903.4533</v>
+        <v>426891.9073</v>
       </c>
       <c r="G10" t="n">
-        <v>-23115058.11358699</v>
+        <v>-5305160.921686982</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6085</v>
+        <v>0.6105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6085</v>
+        <v>0.6105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6085</v>
+        <v>0.6105</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6085</v>
+        <v>0.6105</v>
       </c>
       <c r="F11" t="n">
-        <v>1019167.8796</v>
+        <v>925930.3017</v>
       </c>
       <c r="G11" t="n">
-        <v>-24134225.99318699</v>
+        <v>-6231091.223386982</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.61</v>
+        <v>0.6181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.61</v>
+        <v>0.6181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.61</v>
+        <v>0.6181</v>
       </c>
       <c r="E12" t="n">
-        <v>0.61</v>
+        <v>0.6181</v>
       </c>
       <c r="F12" t="n">
-        <v>874.5791</v>
+        <v>483007.6356</v>
       </c>
       <c r="G12" t="n">
-        <v>-24133351.41408699</v>
+        <v>-5748083.587786982</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6078</v>
+        <v>0.6179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6078</v>
+        <v>0.6179</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6078</v>
+        <v>0.6179</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6078</v>
+        <v>0.6179</v>
       </c>
       <c r="F13" t="n">
-        <v>812202.0176</v>
+        <v>474553.5292</v>
       </c>
       <c r="G13" t="n">
-        <v>-24945553.43168699</v>
+        <v>-6222637.116986982</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.61</v>
+        <v>0.6196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.61</v>
+        <v>0.6196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.61</v>
+        <v>0.6196</v>
       </c>
       <c r="E14" t="n">
-        <v>0.61</v>
+        <v>0.6196</v>
       </c>
       <c r="F14" t="n">
-        <v>903.5476</v>
+        <v>1499352.3623</v>
       </c>
       <c r="G14" t="n">
-        <v>-24944649.88408699</v>
+        <v>-4723284.754686981</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6127</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6084000000000001</v>
+        <v>0.6127</v>
       </c>
       <c r="F15" t="n">
-        <v>1102781.9294</v>
+        <v>870330.7086</v>
       </c>
       <c r="G15" t="n">
-        <v>-26047431.81348699</v>
+        <v>-5593615.463286981</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.61</v>
+        <v>0.6131</v>
       </c>
       <c r="C16" t="n">
-        <v>0.61</v>
+        <v>0.6131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.61</v>
+        <v>0.6131</v>
       </c>
       <c r="E16" t="n">
-        <v>0.61</v>
+        <v>0.6131</v>
       </c>
       <c r="F16" t="n">
-        <v>848.1223</v>
+        <v>1685488.4685</v>
       </c>
       <c r="G16" t="n">
-        <v>-26046583.69118699</v>
+        <v>-3908126.994786981</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,35 +978,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6097</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6097</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6097</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6097</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>910560.4346</v>
+        <v>932844.8815</v>
       </c>
       <c r="G17" t="n">
-        <v>-26957144.12578699</v>
+        <v>-2975282.113286981</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1018,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="C18" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="D18" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="E18" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="F18" t="n">
-        <v>857.9387</v>
+        <v>1359355.0008</v>
       </c>
       <c r="G18" t="n">
-        <v>-26956286.18708698</v>
+        <v>-4334637.114086981</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1062,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6078</v>
+        <v>0.6118</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6078</v>
+        <v>0.6118</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6078</v>
+        <v>0.6118</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6078</v>
+        <v>0.6118</v>
       </c>
       <c r="F19" t="n">
-        <v>1200275.4751</v>
+        <v>1704834.8919</v>
       </c>
       <c r="G19" t="n">
-        <v>-28156561.66218698</v>
+        <v>-6039472.005986981</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1106,35 +1086,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6093</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6093</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6093</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6093</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>2005613.7557</v>
+        <v>1526013.8067</v>
       </c>
       <c r="G20" t="n">
-        <v>-26150947.90648698</v>
+        <v>-4513458.199286981</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.6078</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1146,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6099</v>
+        <v>0.6187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6099</v>
+        <v>0.6187</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6099</v>
+        <v>0.6187</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6099</v>
+        <v>0.6187</v>
       </c>
       <c r="F21" t="n">
-        <v>1231273.7077</v>
+        <v>428061.8734</v>
       </c>
       <c r="G21" t="n">
-        <v>-24919674.19878699</v>
+        <v>-4085396.325886981</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1190,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.61</v>
+        <v>0.6163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.61</v>
+        <v>0.6163</v>
       </c>
       <c r="D22" t="n">
-        <v>0.61</v>
+        <v>0.6163</v>
       </c>
       <c r="E22" t="n">
-        <v>0.61</v>
+        <v>0.6163</v>
       </c>
       <c r="F22" t="n">
-        <v>33419.1615</v>
+        <v>1130243.2523</v>
       </c>
       <c r="G22" t="n">
-        <v>-24886255.03728699</v>
+        <v>-5215639.57818698</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1234,35 +1194,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.61</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.61</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.61</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.61</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>1408703.1114</v>
+        <v>692681.3432</v>
       </c>
       <c r="G23" t="n">
-        <v>-24886255.03728699</v>
+        <v>-5908320.92138698</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1274,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.62</v>
+        <v>0.6117</v>
       </c>
       <c r="C24" t="n">
-        <v>0.62</v>
+        <v>0.6117</v>
       </c>
       <c r="D24" t="n">
-        <v>0.62</v>
+        <v>0.6117</v>
       </c>
       <c r="E24" t="n">
-        <v>0.62</v>
+        <v>0.6117</v>
       </c>
       <c r="F24" t="n">
-        <v>1234</v>
+        <v>1545932.6675</v>
       </c>
       <c r="G24" t="n">
-        <v>-24885021.03728699</v>
+        <v>-7454253.58888698</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1318,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6117</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6117</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6117</v>
       </c>
       <c r="F25" t="n">
-        <v>2030050.6393</v>
+        <v>107216.3935</v>
       </c>
       <c r="G25" t="n">
-        <v>-26915071.67658699</v>
+        <v>-7454253.58888698</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1342,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1360,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6128</v>
+        <v>0.6112</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6128</v>
+        <v>0.6112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6128</v>
+        <v>0.6112</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6128</v>
+        <v>0.6112</v>
       </c>
       <c r="F26" t="n">
-        <v>2009442.9264</v>
+        <v>511334.5208</v>
       </c>
       <c r="G26" t="n">
-        <v>-28924514.60298698</v>
+        <v>-7965588.10968698</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1399,19 +1341,19 @@
         <v>0.61</v>
       </c>
       <c r="C27" t="n">
-        <v>0.61</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="D27" t="n">
         <v>0.61</v>
       </c>
       <c r="E27" t="n">
-        <v>0.61</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>419244.3291</v>
+        <v>1517076.3357</v>
       </c>
       <c r="G27" t="n">
-        <v>-29343758.93208699</v>
+        <v>-9482664.44538698</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1432,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6133</v>
+        <v>0.6095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6133</v>
+        <v>0.6095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6133</v>
+        <v>0.6095</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6133</v>
+        <v>0.6095</v>
       </c>
       <c r="F28" t="n">
-        <v>439172.5695</v>
+        <v>561792.6801</v>
       </c>
       <c r="G28" t="n">
-        <v>-28904586.36258699</v>
+        <v>-8920871.76528698</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1468,35 +1410,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.62</v>
+        <v>0.6095</v>
       </c>
       <c r="C29" t="n">
-        <v>0.62</v>
+        <v>0.6095</v>
       </c>
       <c r="D29" t="n">
-        <v>0.62</v>
+        <v>0.6095</v>
       </c>
       <c r="E29" t="n">
-        <v>0.62</v>
+        <v>0.6095</v>
       </c>
       <c r="F29" t="n">
-        <v>810.7875</v>
+        <v>137395.3088</v>
       </c>
       <c r="G29" t="n">
-        <v>-28903775.57508698</v>
+        <v>-8920871.76528698</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.6133</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1508,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6202</v>
+        <v>0.62</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6202</v>
+        <v>0.62</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="F30" t="n">
-        <v>823267.9745</v>
+        <v>421065.1322</v>
       </c>
       <c r="G30" t="n">
-        <v>-28080507.60058698</v>
+        <v>-8499806.633086979</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1532,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1550,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6112</v>
+        <v>0.6096</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6112</v>
+        <v>0.6096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6112</v>
+        <v>0.6096</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6112</v>
+        <v>0.6096</v>
       </c>
       <c r="F31" t="n">
-        <v>1235304.0281</v>
+        <v>1664618.9482</v>
       </c>
       <c r="G31" t="n">
-        <v>-29315811.62868698</v>
+        <v>-10164425.58128698</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1574,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6123</v>
+        <v>0.6102</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6261</v>
+        <v>0.6102</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6261</v>
+        <v>0.6102</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6123</v>
+        <v>0.6102</v>
       </c>
       <c r="F32" t="n">
-        <v>3289659.6596</v>
+        <v>1924993.9179</v>
       </c>
       <c r="G32" t="n">
-        <v>-26026151.96908698</v>
+        <v>-8239431.66338698</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1616,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1634,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6261</v>
+        <v>0.6096</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6261</v>
+        <v>0.6096</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6261</v>
+        <v>0.6096</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6261</v>
+        <v>0.6096</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>1793490.8376</v>
       </c>
       <c r="G33" t="n">
-        <v>-26026151.96908698</v>
+        <v>-10032922.50098698</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1658,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6237</v>
+        <v>0.6096</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6237</v>
+        <v>0.6096</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6237</v>
+        <v>0.6096</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6237</v>
+        <v>0.6096</v>
       </c>
       <c r="F34" t="n">
-        <v>1121477.1897</v>
+        <v>784694.5618</v>
       </c>
       <c r="G34" t="n">
-        <v>-27147629.15878698</v>
+        <v>-10032922.50098698</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1700,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1718,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6214</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6214</v>
+        <v>0.609</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6214</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6214</v>
+        <v>0.609</v>
       </c>
       <c r="F35" t="n">
-        <v>1939150.5923</v>
+        <v>303358.3497</v>
       </c>
       <c r="G35" t="n">
-        <v>-29086779.75108698</v>
+        <v>-10336280.85068698</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1742,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1760,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6257</v>
+        <v>0.6091</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6257</v>
+        <v>0.6091</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6257</v>
+        <v>0.6091</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6257</v>
+        <v>0.6091</v>
       </c>
       <c r="F36" t="n">
-        <v>1652612.9613</v>
+        <v>1883468.939</v>
       </c>
       <c r="G36" t="n">
-        <v>-27434166.78978698</v>
+        <v>-8452811.911686981</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1784,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1802,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6091</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6091</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6091</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.6091</v>
       </c>
       <c r="F37" t="n">
-        <v>1410728.452</v>
+        <v>1462899.1664</v>
       </c>
       <c r="G37" t="n">
-        <v>-28844895.24178698</v>
+        <v>-8452811.911686981</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1826,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1844,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6083</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6214</v>
+        <v>0.6083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6083</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6214</v>
+        <v>0.6083</v>
       </c>
       <c r="F38" t="n">
-        <v>619883.0473</v>
+        <v>2106767.8807</v>
       </c>
       <c r="G38" t="n">
-        <v>-29464778.28908698</v>
+        <v>-10559579.79238698</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1868,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1886,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6217</v>
+        <v>0.61</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6217</v>
+        <v>0.61</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6217</v>
+        <v>0.61</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6217</v>
+        <v>0.61</v>
       </c>
       <c r="F39" t="n">
-        <v>819625.6473</v>
+        <v>1330.2972</v>
       </c>
       <c r="G39" t="n">
-        <v>-28645152.64178698</v>
+        <v>-10558249.49518698</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1910,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1928,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="F40" t="n">
-        <v>842.5897</v>
+        <v>132632.4312</v>
       </c>
       <c r="G40" t="n">
-        <v>-28644310.05208698</v>
+        <v>-10690881.92638698</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1970,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6132</v>
+        <v>0.6088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6132</v>
+        <v>0.6088</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6132</v>
+        <v>0.6088</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6132</v>
+        <v>0.6088</v>
       </c>
       <c r="F41" t="n">
-        <v>708242.9408</v>
+        <v>1048602.7315</v>
       </c>
       <c r="G41" t="n">
-        <v>-29352552.99288698</v>
+        <v>-9642279.194886981</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1994,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2012,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6189</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6189</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6189</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6189</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>519966.2084</v>
+        <v>1784358.5349</v>
       </c>
       <c r="G42" t="n">
-        <v>-28832586.78448698</v>
+        <v>-7857920.65998698</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2036,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2054,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6087</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6087</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6087</v>
       </c>
       <c r="F43" t="n">
-        <v>204085.2465</v>
+        <v>670415.2868</v>
       </c>
       <c r="G43" t="n">
-        <v>-28628501.53798698</v>
+        <v>-8528335.946786981</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2078,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6145</v>
+        <v>0.6091</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6145</v>
+        <v>0.6091</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6145</v>
+        <v>0.6091</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6145</v>
+        <v>0.6091</v>
       </c>
       <c r="F44" t="n">
-        <v>494499.721</v>
+        <v>493140.589</v>
       </c>
       <c r="G44" t="n">
-        <v>-29123001.25898698</v>
+        <v>-8035195.357786981</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2120,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2138,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6257</v>
+        <v>0.6087</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6257</v>
+        <v>0.6087</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6257</v>
+        <v>0.6087</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6257</v>
+        <v>0.6087</v>
       </c>
       <c r="F45" t="n">
-        <v>4781.0791</v>
+        <v>999403.1703</v>
       </c>
       <c r="G45" t="n">
-        <v>-29118220.17988698</v>
+        <v>-9034598.528086981</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2162,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2180,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6121</v>
+        <v>0.6085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.612</v>
+        <v>0.6085</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6121</v>
+        <v>0.6085</v>
       </c>
       <c r="E46" t="n">
-        <v>0.612</v>
+        <v>0.6085</v>
       </c>
       <c r="F46" t="n">
-        <v>204085.2465</v>
+        <v>5538.1546</v>
       </c>
       <c r="G46" t="n">
-        <v>-29322305.42638698</v>
+        <v>-9040136.682686981</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2204,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6209</v>
+        <v>0.6089</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6209</v>
+        <v>0.6089</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6209</v>
+        <v>0.6089</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6209</v>
+        <v>0.6089</v>
       </c>
       <c r="F47" t="n">
-        <v>1338527.3688</v>
+        <v>1322248.8422</v>
       </c>
       <c r="G47" t="n">
-        <v>-27983778.05758698</v>
+        <v>-7717887.840486981</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2246,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="F48" t="n">
-        <v>913.7163</v>
+        <v>490744.9066</v>
       </c>
       <c r="G48" t="n">
-        <v>-27982864.34128698</v>
+        <v>-7227142.933886981</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2288,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2306,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6256</v>
+        <v>0.61</v>
       </c>
       <c r="F49" t="n">
-        <v>115864.2886</v>
+        <v>830.4901</v>
       </c>
       <c r="G49" t="n">
-        <v>-27982864.34128698</v>
+        <v>-7226312.443786981</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2330,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2348,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6257</v>
+        <v>0.6088</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6257</v>
+        <v>0.6088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6257</v>
+        <v>0.6088</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6257</v>
+        <v>0.6088</v>
       </c>
       <c r="F50" t="n">
-        <v>608283.2554</v>
+        <v>1067109.3844</v>
       </c>
       <c r="G50" t="n">
-        <v>-27374581.08588699</v>
+        <v>-8293421.82818698</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2372,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2390,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.622</v>
+        <v>0.6097</v>
       </c>
       <c r="C51" t="n">
-        <v>0.622</v>
+        <v>0.6095</v>
       </c>
       <c r="D51" t="n">
-        <v>0.622</v>
+        <v>0.6097</v>
       </c>
       <c r="E51" t="n">
-        <v>0.622</v>
+        <v>0.6095</v>
       </c>
       <c r="F51" t="n">
-        <v>724033.2674</v>
+        <v>503243.1881</v>
       </c>
       <c r="G51" t="n">
-        <v>-28098614.35328699</v>
+        <v>-7790178.640086981</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2414,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2432,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6096</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6096</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6096</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6163999999999999</v>
+        <v>0.6096</v>
       </c>
       <c r="F52" t="n">
-        <v>825277.425</v>
+        <v>2104148.9004</v>
       </c>
       <c r="G52" t="n">
-        <v>-28923891.77828699</v>
+        <v>-5686029.739686981</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2456,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2474,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6256</v>
+        <v>0.6096</v>
       </c>
       <c r="F53" t="n">
-        <v>4781.8433</v>
+        <v>1766932.445</v>
       </c>
       <c r="G53" t="n">
-        <v>-28919109.93498699</v>
+        <v>-5686029.739686981</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2498,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="F54" t="n">
-        <v>1408529.1569</v>
+        <v>824.7054000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-30327639.09188699</v>
+        <v>-5685205.034286981</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2540,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2558,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6181</v>
+        <v>0.6099</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6181</v>
+        <v>0.6099</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6181</v>
+        <v>0.6099</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6181</v>
+        <v>0.6099</v>
       </c>
       <c r="F55" t="n">
-        <v>632575.116</v>
+        <v>861396.6674</v>
       </c>
       <c r="G55" t="n">
-        <v>-30960214.20788699</v>
+        <v>-6546601.70168698</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2582,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2600,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6204</v>
+        <v>0.6095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6204</v>
+        <v>0.61</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6204</v>
+        <v>0.61</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6204</v>
+        <v>0.608</v>
       </c>
       <c r="F56" t="n">
-        <v>1524725.8239</v>
+        <v>77417.7941</v>
       </c>
       <c r="G56" t="n">
-        <v>-29435488.38398699</v>
+        <v>-6469183.907586981</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2624,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2642,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6261</v>
+        <v>0.6097</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6261</v>
+        <v>0.6097</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6261</v>
+        <v>0.6097</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6261</v>
+        <v>0.6097</v>
       </c>
       <c r="F57" t="n">
-        <v>1060.1431</v>
+        <v>2100175.6707</v>
       </c>
       <c r="G57" t="n">
-        <v>-29434428.24088699</v>
+        <v>-8569359.578286981</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2666,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2684,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6126</v>
+        <v>0.6097</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6126</v>
+        <v>0.6097</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6126</v>
+        <v>0.6097</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6126</v>
+        <v>0.6097</v>
       </c>
       <c r="F58" t="n">
-        <v>1486810.2918</v>
+        <v>803108.8391</v>
       </c>
       <c r="G58" t="n">
-        <v>-30921238.53268699</v>
+        <v>-8569359.578286981</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2708,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.626</v>
+        <v>0.6099</v>
       </c>
       <c r="C59" t="n">
-        <v>0.626</v>
+        <v>0.6099</v>
       </c>
       <c r="D59" t="n">
-        <v>0.626</v>
+        <v>0.6099</v>
       </c>
       <c r="E59" t="n">
-        <v>0.626</v>
+        <v>0.6099</v>
       </c>
       <c r="F59" t="n">
-        <v>971.4173</v>
+        <v>928018.4396</v>
       </c>
       <c r="G59" t="n">
-        <v>-30920267.11538699</v>
+        <v>-7641341.138686981</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2750,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2768,40 +2526,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6146</v>
+        <v>0.6095</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6146</v>
+        <v>0.6095</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6146</v>
+        <v>0.6095</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6146</v>
+        <v>0.6095</v>
       </c>
       <c r="F60" t="n">
-        <v>1706236.026</v>
+        <v>1959369.2466</v>
       </c>
       <c r="G60" t="n">
-        <v>-32626503.14138699</v>
+        <v>-9600710.385286981</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.6133</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>0.9971196804174142</v>
+        <v>1</v>
       </c>
       <c r="N60" t="inlineStr"/>
     </row>
@@ -2810,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.625</v>
+        <v>0.6081</v>
       </c>
       <c r="C61" t="n">
-        <v>0.625</v>
+        <v>0.6081</v>
       </c>
       <c r="D61" t="n">
-        <v>0.625</v>
+        <v>0.6081</v>
       </c>
       <c r="E61" t="n">
-        <v>0.625</v>
+        <v>0.6081</v>
       </c>
       <c r="F61" t="n">
-        <v>1055.19</v>
+        <v>1781702.867</v>
       </c>
       <c r="G61" t="n">
-        <v>-32625447.95138698</v>
+        <v>-11382413.25228698</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2846,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6106</v>
+        <v>0.61</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6106</v>
+        <v>0.61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6106</v>
+        <v>0.61</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6106</v>
+        <v>0.61</v>
       </c>
       <c r="F62" t="n">
-        <v>1104678.4103</v>
+        <v>827.0643</v>
       </c>
       <c r="G62" t="n">
-        <v>-33730126.36168698</v>
+        <v>-11381586.18798698</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2882,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6231</v>
+        <v>0.6093</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6231</v>
+        <v>0.6093</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6231</v>
+        <v>0.6093</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6231</v>
+        <v>0.6093</v>
       </c>
       <c r="F63" t="n">
-        <v>420852.1436</v>
+        <v>1577095.651</v>
       </c>
       <c r="G63" t="n">
-        <v>-33309274.21808698</v>
+        <v>-12958681.83898698</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2918,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6236</v>
+        <v>0.61</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6236</v>
+        <v>0.61</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6236</v>
+        <v>0.61</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6236</v>
+        <v>0.61</v>
       </c>
       <c r="F64" t="n">
-        <v>1893233.4519</v>
+        <v>831.5947</v>
       </c>
       <c r="G64" t="n">
-        <v>-31416040.76618698</v>
+        <v>-12957850.24428698</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2954,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.611</v>
+        <v>0.6098</v>
       </c>
       <c r="C65" t="n">
-        <v>0.611</v>
+        <v>0.6098</v>
       </c>
       <c r="D65" t="n">
-        <v>0.611</v>
+        <v>0.6098</v>
       </c>
       <c r="E65" t="n">
-        <v>0.611</v>
+        <v>0.6098</v>
       </c>
       <c r="F65" t="n">
-        <v>100274.9005</v>
+        <v>1393114.5436</v>
       </c>
       <c r="G65" t="n">
-        <v>-31516315.66668698</v>
+        <v>-14350964.78788698</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2990,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6246</v>
+        <v>0.6087</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6246</v>
+        <v>0.6087</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6246</v>
+        <v>0.6087</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6246</v>
+        <v>0.6087</v>
       </c>
       <c r="F66" t="n">
-        <v>1586.7152</v>
+        <v>1876376.5022</v>
       </c>
       <c r="G66" t="n">
-        <v>-31514728.95148698</v>
+        <v>-16227341.29008698</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3026,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6119</v>
+        <v>0.61</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6119</v>
+        <v>0.61</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6119</v>
+        <v>0.61</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6119</v>
+        <v>0.61</v>
       </c>
       <c r="F67" t="n">
-        <v>583070.5956</v>
+        <v>837.1571</v>
       </c>
       <c r="G67" t="n">
-        <v>-32097799.54708698</v>
+        <v>-16226504.13298698</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3062,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6245000000000001</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1592.5278</v>
+        <v>6676673.5094</v>
       </c>
       <c r="G68" t="n">
-        <v>-32096207.01928698</v>
+        <v>-22903177.64238698</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3098,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6217</v>
+        <v>0.6089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6217</v>
+        <v>0.6089</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6217</v>
+        <v>0.6089</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6217</v>
+        <v>0.6089</v>
       </c>
       <c r="F69" t="n">
-        <v>1445548.7448</v>
+        <v>839723.7457</v>
       </c>
       <c r="G69" t="n">
-        <v>-33541755.76408698</v>
+        <v>-22063453.89668698</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3134,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6145</v>
+        <v>0.6089</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6145</v>
+        <v>0.6089</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6145</v>
+        <v>0.6089</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6145</v>
+        <v>0.6089</v>
       </c>
       <c r="F70" t="n">
-        <v>1992200.2247</v>
+        <v>1638929.0323</v>
       </c>
       <c r="G70" t="n">
-        <v>-35533955.98878698</v>
+        <v>-22063453.89668698</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3170,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.612</v>
+        <v>0.6079</v>
       </c>
       <c r="C71" t="n">
-        <v>0.612</v>
+        <v>0.6079</v>
       </c>
       <c r="D71" t="n">
-        <v>0.612</v>
+        <v>0.6079</v>
       </c>
       <c r="E71" t="n">
-        <v>0.612</v>
+        <v>0.6079</v>
       </c>
       <c r="F71" t="n">
-        <v>2039794.8165</v>
+        <v>1158393.1288</v>
       </c>
       <c r="G71" t="n">
-        <v>-37573750.80528698</v>
+        <v>-23221847.02548698</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3206,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6113</v>
+        <v>0.61</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6113</v>
+        <v>0.61</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6113</v>
+        <v>0.61</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6113</v>
+        <v>0.61</v>
       </c>
       <c r="F72" t="n">
-        <v>4570.1189</v>
+        <v>845.5238000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-37578320.92418698</v>
+        <v>-23221001.50168698</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3242,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6241</v>
+        <v>0.6099</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6241</v>
+        <v>0.6099</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6241</v>
+        <v>0.6099</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6241</v>
+        <v>0.6099</v>
       </c>
       <c r="F73" t="n">
-        <v>2999.519307803237</v>
+        <v>1797174.7237</v>
       </c>
       <c r="G73" t="n">
-        <v>-37575321.40487918</v>
+        <v>-25018176.22538698</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3278,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6203</v>
+        <v>0.6096</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6203</v>
+        <v>0.6096</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6203</v>
+        <v>0.6096</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6203</v>
+        <v>0.6096</v>
       </c>
       <c r="F74" t="n">
-        <v>1872338.4168</v>
+        <v>452085.7535</v>
       </c>
       <c r="G74" t="n">
-        <v>-39447659.82167918</v>
+        <v>-25470261.97888698</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3314,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6227</v>
+        <v>0.61</v>
       </c>
       <c r="F75" t="n">
-        <v>1112866.4715</v>
+        <v>855.3108999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-38334793.35017918</v>
+        <v>-25469406.66798699</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3350,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6189</v>
+        <v>0.6076</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6189</v>
+        <v>0.6076</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6189</v>
+        <v>0.6076</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6189</v>
+        <v>0.6076</v>
       </c>
       <c r="F76" t="n">
-        <v>1855254.9218</v>
+        <v>1246861.8506</v>
       </c>
       <c r="G76" t="n">
-        <v>-40190048.27197918</v>
+        <v>-26716268.51858699</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3386,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6116</v>
+        <v>0.6075</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6116</v>
+        <v>0.6075</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6116</v>
+        <v>0.6075</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6116</v>
+        <v>0.6075</v>
       </c>
       <c r="F77" t="n">
-        <v>1420411.0723</v>
+        <v>11629.1667</v>
       </c>
       <c r="G77" t="n">
-        <v>-41610459.34427918</v>
+        <v>-26727897.68528699</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3422,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6118</v>
+        <v>0.6077</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6118</v>
+        <v>0.6077</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6118</v>
+        <v>0.6077</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6118</v>
+        <v>0.6077</v>
       </c>
       <c r="F78" t="n">
-        <v>445469.4446</v>
+        <v>1858313.0453</v>
       </c>
       <c r="G78" t="n">
-        <v>-41164989.89967918</v>
+        <v>-24869584.63998699</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3458,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6112</v>
+        <v>0.609</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6241</v>
+        <v>0.609</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6241</v>
+        <v>0.609</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6112</v>
+        <v>0.609</v>
       </c>
       <c r="F79" t="n">
-        <v>9964.112999999999</v>
+        <v>1980953.39</v>
       </c>
       <c r="G79" t="n">
-        <v>-41155025.78667919</v>
+        <v>-22888631.24998699</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3494,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6185</v>
+        <v>0.608</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6185</v>
+        <v>0.608</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6185</v>
+        <v>0.608</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6185</v>
+        <v>0.608</v>
       </c>
       <c r="F80" t="n">
-        <v>1746881.9599</v>
+        <v>671330.3169</v>
       </c>
       <c r="G80" t="n">
-        <v>-42901907.74657919</v>
+        <v>-23559961.56688699</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3530,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6241</v>
+        <v>0.6097</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6241</v>
+        <v>0.6097</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6241</v>
+        <v>0.6097</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6241</v>
+        <v>0.6097</v>
       </c>
       <c r="F81" t="n">
-        <v>813.5517</v>
+        <v>444903.4533</v>
       </c>
       <c r="G81" t="n">
-        <v>-42901094.19487918</v>
+        <v>-23115058.11358699</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3566,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.62</v>
+        <v>0.6085</v>
       </c>
       <c r="C82" t="n">
-        <v>0.62</v>
+        <v>0.6085</v>
       </c>
       <c r="D82" t="n">
-        <v>0.62</v>
+        <v>0.6085</v>
       </c>
       <c r="E82" t="n">
-        <v>0.62</v>
+        <v>0.6085</v>
       </c>
       <c r="F82" t="n">
-        <v>4867.741935483871</v>
+        <v>1019167.8796</v>
       </c>
       <c r="G82" t="n">
-        <v>-42905961.93681467</v>
+        <v>-24134225.99318699</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3602,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6159</v>
+        <v>0.61</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6159</v>
+        <v>0.61</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6159</v>
+        <v>0.61</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6159</v>
+        <v>0.61</v>
       </c>
       <c r="F83" t="n">
-        <v>692479.2871</v>
+        <v>874.5791</v>
       </c>
       <c r="G83" t="n">
-        <v>-43598441.22391467</v>
+        <v>-24133351.41408699</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3638,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6123</v>
+        <v>0.6078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6123</v>
+        <v>0.6078</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6123</v>
+        <v>0.6078</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6123</v>
+        <v>0.6078</v>
       </c>
       <c r="F84" t="n">
-        <v>1854501.5648</v>
+        <v>812202.0176</v>
       </c>
       <c r="G84" t="n">
-        <v>-45452942.78871467</v>
+        <v>-24945553.43168699</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3674,31 +3426,35 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6112</v>
+        <v>0.61</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6112</v>
+        <v>0.61</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6112</v>
+        <v>0.61</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6112</v>
+        <v>0.61</v>
       </c>
       <c r="F85" t="n">
-        <v>1705139.9473</v>
+        <v>903.5476</v>
       </c>
       <c r="G85" t="n">
-        <v>-47158082.73601467</v>
+        <v>-24944649.88408699</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.6078</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3710,32 +3466,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6196</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6196</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6196</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6196</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>1885355.6928</v>
+        <v>1102781.9294</v>
       </c>
       <c r="G86" t="n">
-        <v>-45272727.04321467</v>
+        <v>-26047431.81348699</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3746,32 +3510,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6117</v>
+        <v>0.61</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6117</v>
+        <v>0.61</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6117</v>
+        <v>0.61</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6117</v>
+        <v>0.61</v>
       </c>
       <c r="F87" t="n">
-        <v>1548845.5099</v>
+        <v>848.1223</v>
       </c>
       <c r="G87" t="n">
-        <v>-46821572.55311467</v>
+        <v>-26046583.69118699</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3782,31 +3554,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6113</v>
+        <v>0.6097</v>
       </c>
       <c r="C88" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6113</v>
+        <v>0.6097</v>
       </c>
       <c r="E88" t="n">
-        <v>0.61</v>
+        <v>0.6097</v>
       </c>
       <c r="F88" t="n">
-        <v>2233032.4454</v>
+        <v>910560.4346</v>
       </c>
       <c r="G88" t="n">
-        <v>-49054604.99851467</v>
+        <v>-26957144.12578699</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.61</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3818,32 +3594,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6143</v>
+        <v>0.61</v>
       </c>
       <c r="F89" t="n">
-        <v>1069950.9809</v>
+        <v>857.9387</v>
       </c>
       <c r="G89" t="n">
-        <v>-47984654.01761467</v>
+        <v>-26956286.18708698</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3854,32 +3638,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6103</v>
+        <v>0.6078</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6103</v>
+        <v>0.6078</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6103</v>
+        <v>0.6078</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6103</v>
+        <v>0.6078</v>
       </c>
       <c r="F90" t="n">
-        <v>1644508.8814</v>
+        <v>1200275.4751</v>
       </c>
       <c r="G90" t="n">
-        <v>-49629162.89901467</v>
+        <v>-28156561.66218698</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3890,31 +3682,35 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6139</v>
+        <v>0.6093</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6139</v>
+        <v>0.6093</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6139</v>
+        <v>0.6093</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6139</v>
+        <v>0.6093</v>
       </c>
       <c r="F91" t="n">
-        <v>1491251.6822</v>
+        <v>2005613.7557</v>
       </c>
       <c r="G91" t="n">
-        <v>-48137911.21681467</v>
+        <v>-26150947.90648698</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.6078</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
@@ -3926,32 +3722,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6196</v>
+        <v>0.6099</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6196</v>
+        <v>0.6099</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6196</v>
+        <v>0.6099</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6196</v>
+        <v>0.6099</v>
       </c>
       <c r="F92" t="n">
-        <v>1622396.5416</v>
+        <v>1231273.7077</v>
       </c>
       <c r="G92" t="n">
-        <v>-46515514.67521466</v>
+        <v>-24919674.19878699</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3962,32 +3766,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="F93" t="n">
-        <v>1544</v>
+        <v>33419.1615</v>
       </c>
       <c r="G93" t="n">
-        <v>-46513970.67521466</v>
+        <v>-24886255.03728699</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3998,31 +3810,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="D94" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6199</v>
+        <v>0.61</v>
       </c>
       <c r="F94" t="n">
-        <v>4921.419277419355</v>
+        <v>1408703.1114</v>
       </c>
       <c r="G94" t="n">
-        <v>-46513970.67521466</v>
+        <v>-24886255.03728699</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.61</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -4034,32 +3850,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6199</v>
+        <v>0.62</v>
       </c>
       <c r="C95" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6199</v>
+        <v>0.62</v>
       </c>
       <c r="E95" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="F95" t="n">
-        <v>3232.7096</v>
+        <v>1234</v>
       </c>
       <c r="G95" t="n">
-        <v>-46517203.38481466</v>
+        <v>-24885021.03728699</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +3894,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6182</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6182</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6182</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6182</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>1220797.3337</v>
+        <v>2030050.6393</v>
       </c>
       <c r="G96" t="n">
-        <v>-45296406.05111466</v>
+        <v>-26915071.67658699</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4094,8 +3918,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4106,28 +3936,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.62</v>
+        <v>0.6128</v>
       </c>
       <c r="C97" t="n">
-        <v>0.62</v>
+        <v>0.6128</v>
       </c>
       <c r="D97" t="n">
-        <v>0.62</v>
+        <v>0.6128</v>
       </c>
       <c r="E97" t="n">
-        <v>0.62</v>
+        <v>0.6128</v>
       </c>
       <c r="F97" t="n">
-        <v>1044.0672</v>
+        <v>2009442.9264</v>
       </c>
       <c r="G97" t="n">
-        <v>-45295361.98391467</v>
+        <v>-28924514.60298698</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4142,22 +3972,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6183</v>
+        <v>0.61</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6183</v>
+        <v>0.61</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6183</v>
+        <v>0.61</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6183</v>
+        <v>0.61</v>
       </c>
       <c r="F98" t="n">
-        <v>1804513.9774</v>
+        <v>419244.3291</v>
       </c>
       <c r="G98" t="n">
-        <v>-47099875.96131466</v>
+        <v>-29343758.93208699</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4178,22 +4008,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6156</v>
+        <v>0.6133</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6156</v>
+        <v>0.6133</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6156</v>
+        <v>0.6133</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6156</v>
+        <v>0.6133</v>
       </c>
       <c r="F99" t="n">
-        <v>1289714.2537</v>
+        <v>439172.5695</v>
       </c>
       <c r="G99" t="n">
-        <v>-48389590.21501467</v>
+        <v>-28904586.36258699</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4214,22 +4044,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6101</v>
+        <v>0.62</v>
       </c>
       <c r="C100" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6101</v>
+        <v>0.62</v>
       </c>
       <c r="E100" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="F100" t="n">
-        <v>1245744.2772</v>
+        <v>810.7875</v>
       </c>
       <c r="G100" t="n">
-        <v>-49635334.49221466</v>
+        <v>-28903775.57508698</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4250,22 +4080,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6162</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6162</v>
+        <v>0.6202</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6162</v>
+        <v>0.6202</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6162</v>
+        <v>0.6124000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1608659.4889</v>
+        <v>823267.9745</v>
       </c>
       <c r="G101" t="n">
-        <v>-48026675.00331467</v>
+        <v>-28080507.60058698</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4298,10 +4128,10 @@
         <v>0.6112</v>
       </c>
       <c r="F102" t="n">
-        <v>543175.9488</v>
+        <v>1235304.0281</v>
       </c>
       <c r="G102" t="n">
-        <v>-48569850.95211466</v>
+        <v>-29315811.62868698</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4322,22 +4152,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.614</v>
+        <v>0.6123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.614</v>
+        <v>0.6261</v>
       </c>
       <c r="D103" t="n">
-        <v>0.614</v>
+        <v>0.6261</v>
       </c>
       <c r="E103" t="n">
-        <v>0.614</v>
+        <v>0.6123</v>
       </c>
       <c r="F103" t="n">
-        <v>1395420.2991</v>
+        <v>3289659.6596</v>
       </c>
       <c r="G103" t="n">
-        <v>-47174430.65301467</v>
+        <v>-26026151.96908698</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4358,22 +4188,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6101</v>
+        <v>0.6261</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6101</v>
+        <v>0.6261</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6101</v>
+        <v>0.6261</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6101</v>
+        <v>0.6261</v>
       </c>
       <c r="F104" t="n">
-        <v>628976.2284</v>
+        <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>-47803406.88141467</v>
+        <v>-26026151.96908698</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4394,28 +4224,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6185</v>
+        <v>0.6237</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6185</v>
+        <v>0.6237</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6185</v>
+        <v>0.6237</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6185</v>
+        <v>0.6237</v>
       </c>
       <c r="F105" t="n">
-        <v>1604378.8081</v>
+        <v>1121477.1897</v>
       </c>
       <c r="G105" t="n">
-        <v>-46199028.07331467</v>
+        <v>-27147629.15878698</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4430,22 +4260,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.62</v>
+        <v>0.6214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.62</v>
+        <v>0.6214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.62</v>
+        <v>0.6214</v>
       </c>
       <c r="E106" t="n">
-        <v>0.62</v>
+        <v>0.6214</v>
       </c>
       <c r="F106" t="n">
-        <v>848.7893</v>
+        <v>1939150.5923</v>
       </c>
       <c r="G106" t="n">
-        <v>-46198179.28401466</v>
+        <v>-29086779.75108698</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4461,6 +4291,2562 @@
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1652612.9613</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-27434166.78978698</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1410728.452</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-28844895.24178698</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.6214</v>
+      </c>
+      <c r="F109" t="n">
+        <v>619883.0473</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-29464778.28908698</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F110" t="n">
+        <v>819625.6473</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-28645152.64178698</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>842.5897</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-28644310.05208698</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="F112" t="n">
+        <v>708242.9408</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-29352552.99288698</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="F113" t="n">
+        <v>519966.2084</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-28832586.78448698</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6254999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>204085.2465</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-28628501.53798698</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="F115" t="n">
+        <v>494499.721</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-29123001.25898698</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4781.0791</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-29118220.17988698</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6121</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6121</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F117" t="n">
+        <v>204085.2465</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-29322305.42638698</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1338527.3688</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-27983778.05758698</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="F119" t="n">
+        <v>913.7163</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-27982864.34128698</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="F120" t="n">
+        <v>115864.2886</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-27982864.34128698</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="F121" t="n">
+        <v>608283.2554</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-27374581.08588699</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="F122" t="n">
+        <v>724033.2674</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-28098614.35328699</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>825277.425</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-28923891.77828699</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4781.8433</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-28919109.93498699</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1408529.1569</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-30327639.09188699</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6181</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.6181</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6181</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6181</v>
+      </c>
+      <c r="F126" t="n">
+        <v>632575.116</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-30960214.20788699</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.6204</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1524725.8239</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-29435488.38398699</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.6261</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1060.1431</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-29434428.24088699</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1486810.2918</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-30921238.53268699</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="F130" t="n">
+        <v>971.4173</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-30920267.11538699</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1706236.026</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-32626503.14138699</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1055.19</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-32625447.95138698</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1104678.4103</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-33730126.36168698</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="F134" t="n">
+        <v>420852.1436</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-33309274.21808698</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1893233.4519</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-31416040.76618698</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100274.9005</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-31516315.66668698</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1586.7152</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-31514728.95148698</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="F138" t="n">
+        <v>583070.5956</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-32097799.54708698</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6245000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.6245000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6245000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.6245000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1592.5278</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-32096207.01928698</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6217</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1445548.7448</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-33541755.76408698</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1992200.2247</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-35533955.98878698</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2039794.8165</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-37573750.80528698</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4570.1189</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-37578320.92418698</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2999.519307803237</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-37575321.40487918</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1872338.4168</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-39447659.82167918</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6227</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1112866.4715</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-38334793.35017918</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.6189</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1855254.9218</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-40190048.27197918</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6116</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1420411.0723</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-41610459.34427918</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6118</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.6118</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.6118</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6118</v>
+      </c>
+      <c r="F149" t="n">
+        <v>445469.4446</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-41164989.89967918</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9964.112999999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-41155025.78667919</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1746881.9599</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-42901907.74657919</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="F152" t="n">
+        <v>813.5517</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-42901094.19487918</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4867.741935483871</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-42905961.93681467</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="F154" t="n">
+        <v>692479.2871</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-43598441.22391467</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1854501.5648</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-45452942.78871467</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1705139.9473</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-47158082.73601467</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1885355.6928</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-45272727.04321467</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.6117</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.6117</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6117</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.6117</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1548845.5099</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-46821572.55311467</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.6113</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2233032.4454</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-49054604.99851467</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1069950.9809</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-47984654.01761467</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1644508.8814</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-49629162.89901467</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1491251.6822</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-48137911.21681467</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.6196</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1622396.5416</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-46515514.67521466</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1544</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-46513970.67521466</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4921.419277419355</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-46513970.67521466</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6199</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3232.7096</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-46517203.38481466</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6182</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1220797.3337</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-45296406.05111466</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1044.0672</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-45295361.98391467</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1804513.9774</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-47099875.96131466</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1289714.2537</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-48389590.21501467</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1245744.2772</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-49635334.49221466</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1608659.4889</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-48026675.00331467</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.6112</v>
+      </c>
+      <c r="F173" t="n">
+        <v>543175.9488</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-48569850.95211466</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1395420.2991</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-47174430.65301467</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="F175" t="n">
+        <v>628976.2284</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-47803406.88141467</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1604378.8081</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-46199028.07331467</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F177" t="n">
+        <v>848.7893</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-46198179.28401466</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-7117015.828186982</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-16227341.29008698</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-22063453.89668698</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-23221847.02548698</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,22 +3190,19 @@
         <v>-24944649.88408699</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.6078</v>
       </c>
       <c r="J85" t="n">
         <v>0.6078</v>
       </c>
-      <c r="K85" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3484,26 +3227,23 @@
         <v>-26047431.81348699</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="J86" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K86" t="n">
         <v>0.6078</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3528,26 +3268,23 @@
         <v>-26046583.69118699</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6084000000000001</v>
-      </c>
-      <c r="K87" t="n">
         <v>0.6078</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,22 +3309,19 @@
         <v>-26957144.12578699</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="J88" t="n">
         <v>0.61</v>
       </c>
-      <c r="K88" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3612,26 +3346,23 @@
         <v>-26956286.18708698</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.6097</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L89" t="inlineStr">
+        <v>0.61</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3656,26 +3387,21 @@
         <v>-28156561.66218698</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>0.61</v>
       </c>
-      <c r="K90" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3700,22 +3426,15 @@
         <v>-26150947.90648698</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3740,196 +3459,163 @@
         <v>-24919674.19878699</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F93" t="n">
+        <v>33419.1615</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-24886255.03728699</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1408703.1114</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-24886255.03728699</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1234</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-24885021.03728699</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F93" t="n">
-        <v>33419.1615</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-24886255.03728699</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2030050.6393</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-26915071.67658699</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1408703.1114</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-24886255.03728699</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1234</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-24885021.03728699</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2030050.6393</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-26915071.67658699</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3956,16 +3642,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3992,16 +3675,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4028,16 +3708,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4064,16 +3741,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4100,16 +3774,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4136,16 +3807,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4172,16 +3840,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4208,16 +3873,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4244,16 +3906,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4280,16 +3939,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4316,16 +3972,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4352,16 +4005,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4386,18 +4036,15 @@
         <v>-29464778.28908698</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4422,18 +4069,15 @@
         <v>-28645152.64178698</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4458,18 +4102,15 @@
         <v>-28644310.05208698</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4494,18 +4135,15 @@
         <v>-29352552.99288698</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4530,18 +4168,15 @@
         <v>-28832586.78448698</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4568,16 +4203,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4602,18 +4234,15 @@
         <v>-29123001.25898698</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4640,16 +4269,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4676,16 +4302,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4712,16 +4335,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4748,16 +4368,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4782,18 +4399,15 @@
         <v>-27982864.34128698</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4820,16 +4434,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4856,16 +4467,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4890,18 +4498,15 @@
         <v>-28923891.77828699</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4926,18 +4531,15 @@
         <v>-28919109.93498699</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4962,18 +4564,15 @@
         <v>-30327639.09188699</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4998,18 +4597,15 @@
         <v>-30960214.20788699</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5036,16 +4632,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5072,16 +4665,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5108,16 +4698,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5144,16 +4731,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5180,16 +4764,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5216,16 +4797,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5252,16 +4830,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5288,16 +4863,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5324,16 +4896,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5360,16 +4929,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5396,16 +4962,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5432,16 +4995,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5468,16 +5028,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5504,16 +5061,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5540,16 +5094,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5576,16 +5127,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5612,16 +5160,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5648,16 +5193,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5684,16 +5226,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5720,16 +5259,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5756,16 +5292,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5792,16 +5325,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5828,16 +5358,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5864,16 +5391,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5900,16 +5424,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5936,16 +5457,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5972,16 +5490,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6008,16 +5523,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6044,16 +5556,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6080,16 +5589,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6116,16 +5622,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6152,16 +5655,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6188,16 +5688,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,16 +5721,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6260,16 +5754,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6296,16 +5787,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6332,16 +5820,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6368,16 +5853,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6404,16 +5886,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6440,16 +5919,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6476,16 +5952,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6512,16 +5985,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6548,16 +6018,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6584,16 +6051,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6620,16 +6084,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6656,16 +6117,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6692,16 +6150,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6728,16 +6183,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6764,16 +6216,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6800,16 +6249,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6836,18 +6282,15 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9700739.142686984</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10997287.97978698</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-10053591.10938698</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7117015.828186982</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4723284.754686981</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3908126.994786981</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8920871.76528698</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-16227341.29008698</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-22063453.89668698</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-23221847.02548698</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-24944649.88408699</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0.6078</v>
@@ -3227,7 +3227,7 @@
         <v>-26047431.81348699</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0.61</v>
@@ -3268,7 +3268,7 @@
         <v>-26046583.69118699</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0.6084000000000001</v>
@@ -3309,7 +3309,7 @@
         <v>-26957144.12578699</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0.61</v>
@@ -3346,7 +3346,7 @@
         <v>-26956286.18708698</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0.6097</v>
@@ -3387,9 +3387,11 @@
         <v>-28156561.66218698</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.61</v>
+      </c>
       <c r="J90" t="n">
         <v>0.61</v>
       </c>
@@ -3426,10 +3428,14 @@
         <v>-26150947.90648698</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.6078</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3462,8 +3468,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3504,19 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6099</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3525,7 +3545,7 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0.61</v>
@@ -3562,9 +3582,11 @@
         <v>-24885021.03728699</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.61</v>
+      </c>
       <c r="J95" t="n">
         <v>0.61</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>-29464778.28908698</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4069,7 +4091,7 @@
         <v>-28645152.64178698</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4102,7 +4124,7 @@
         <v>-28644310.05208698</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4135,7 +4157,7 @@
         <v>-29352552.99288698</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4168,7 +4190,7 @@
         <v>-28832586.78448698</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4234,7 +4256,7 @@
         <v>-29123001.25898698</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4399,7 +4421,7 @@
         <v>-27982864.34128698</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4498,7 +4520,7 @@
         <v>-28923891.77828699</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4531,7 +4553,7 @@
         <v>-28919109.93498699</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4564,7 +4586,7 @@
         <v>-30327639.09188699</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4597,7 +4619,7 @@
         <v>-30960214.20788699</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4828,7 +4850,7 @@
         <v>-33730126.36168698</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5059,7 +5081,7 @@
         <v>-33541755.76408698</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6291,6 +6313,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9700739.142686984</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10997287.97978698</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-10053591.10938698</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7117015.828186982</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4723284.754686981</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3908126.994786981</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8920871.76528698</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3058,10 +3058,14 @@
         <v>-23115058.11358699</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.608</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3094,8 +3098,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3465,9 +3481,11 @@
         <v>-24919674.19878699</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6093</v>
+      </c>
       <c r="J92" t="n">
         <v>0.6078</v>
       </c>
@@ -3504,11 +3522,9 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.6099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>0.6078</v>
       </c>
@@ -3545,14 +3561,10 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3582,19 +3594,11 @@
         <v>-24885021.03728699</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4850,7 +4848,7 @@
         <v>-33730126.36168698</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4982,7 +4980,7 @@
         <v>-31514728.95148698</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5015,7 +5013,7 @@
         <v>-32097799.54708698</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5081,7 +5079,7 @@
         <v>-33541755.76408698</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5180,7 +5178,7 @@
         <v>-37578320.92418698</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5213,7 +5211,7 @@
         <v>-37575321.40487918</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6313,6 +6311,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -451,7 +451,7 @@
         <v>-9700739.142686984</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10997287.97978698</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-8073572.640586982</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6459896.660086982</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7117015.828186982</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5732052.828986982</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6231091.223386982</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6039472.005986981</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5908320.92138698</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-10032922.50098698</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -3058,14 +3058,10 @@
         <v>-23115058.11358699</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3098,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3227,9 @@
         <v>-26047431.81348699</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>0.6078</v>
       </c>
@@ -3522,9 +3504,11 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6099</v>
+      </c>
       <c r="J93" t="n">
         <v>0.6078</v>
       </c>
@@ -3561,10 +3545,14 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.61</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3594,11 +3582,19 @@
         <v>-24885021.03728699</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3630,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3660,10 +3662,14 @@
         <v>-28924514.60298698</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.6143999999999999</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3693,11 +3699,17 @@
         <v>-29343758.93208699</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3738,19 @@
         <v>-28904586.36258699</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3957,7 +3977,7 @@
         <v>-29086779.75108698</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3990,7 +4010,7 @@
         <v>-27434166.78978698</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4056,7 +4076,7 @@
         <v>-29464778.28908698</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4089,7 +4109,7 @@
         <v>-28645152.64178698</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4419,7 +4439,7 @@
         <v>-27982864.34128698</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4452,7 +4472,7 @@
         <v>-27374581.08588699</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4617,7 +4637,7 @@
         <v>-30960214.20788699</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4716,7 +4736,7 @@
         <v>-30921238.53268699</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4980,7 +5000,7 @@
         <v>-31514728.95148698</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5013,7 +5033,7 @@
         <v>-32097799.54708698</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5178,7 +5198,7 @@
         <v>-37578320.92418698</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5211,7 +5231,7 @@
         <v>-37575321.40487918</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest APIS.xlsx
+++ b/BackTest/2020-01-12 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>887590.0147000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-9700739.142686984</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1296548.8371</v>
       </c>
       <c r="G3" t="n">
-        <v>-10997287.97978698</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>943696.8704</v>
       </c>
       <c r="G4" t="n">
-        <v>-10053591.10938698</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2039148.9524</v>
       </c>
       <c r="G5" t="n">
-        <v>-8014442.156986983</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>59130.4836</v>
       </c>
       <c r="G6" t="n">
-        <v>-8073572.640586982</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1613675.9805</v>
       </c>
       <c r="G7" t="n">
-        <v>-6459896.660086982</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>657119.1681</v>
       </c>
       <c r="G8" t="n">
-        <v>-7117015.828186982</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1384962.9992</v>
       </c>
       <c r="G9" t="n">
-        <v>-5732052.828986982</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>426891.9073</v>
       </c>
       <c r="G10" t="n">
-        <v>-5305160.921686982</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>925930.3017</v>
       </c>
       <c r="G11" t="n">
-        <v>-6231091.223386982</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>483007.6356</v>
       </c>
       <c r="G12" t="n">
-        <v>-5748083.587786982</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>474553.5292</v>
       </c>
       <c r="G13" t="n">
-        <v>-6222637.116986982</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1499352.3623</v>
       </c>
       <c r="G14" t="n">
-        <v>-4723284.754686981</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>870330.7086</v>
       </c>
       <c r="G15" t="n">
-        <v>-5593615.463286981</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1685488.4685</v>
       </c>
       <c r="G16" t="n">
-        <v>-3908126.994786981</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>932844.8815</v>
       </c>
       <c r="G17" t="n">
-        <v>-2975282.113286981</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1359355.0008</v>
       </c>
       <c r="G18" t="n">
-        <v>-4334637.114086981</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1704834.8919</v>
       </c>
       <c r="G19" t="n">
-        <v>-6039472.005986981</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1526013.8067</v>
       </c>
       <c r="G20" t="n">
-        <v>-4513458.199286981</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>428061.8734</v>
       </c>
       <c r="G21" t="n">
-        <v>-4085396.325886981</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1130243.2523</v>
       </c>
       <c r="G22" t="n">
-        <v>-5215639.57818698</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>692681.3432</v>
       </c>
       <c r="G23" t="n">
-        <v>-5908320.92138698</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1545932.6675</v>
       </c>
       <c r="G24" t="n">
-        <v>-7454253.58888698</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>107216.3935</v>
       </c>
       <c r="G25" t="n">
-        <v>-7454253.58888698</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>511334.5208</v>
       </c>
       <c r="G26" t="n">
-        <v>-7965588.10968698</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1517076.3357</v>
       </c>
       <c r="G27" t="n">
-        <v>-9482664.44538698</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>561792.6801</v>
       </c>
       <c r="G28" t="n">
-        <v>-8920871.76528698</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>137395.3088</v>
       </c>
       <c r="G29" t="n">
-        <v>-8920871.76528698</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>421065.1322</v>
       </c>
       <c r="G30" t="n">
-        <v>-8499806.633086979</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1664618.9482</v>
       </c>
       <c r="G31" t="n">
-        <v>-10164425.58128698</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1924993.9179</v>
       </c>
       <c r="G32" t="n">
-        <v>-8239431.66338698</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1793490.8376</v>
       </c>
       <c r="G33" t="n">
-        <v>-10032922.50098698</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>784694.5618</v>
       </c>
       <c r="G34" t="n">
-        <v>-10032922.50098698</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>303358.3497</v>
       </c>
       <c r="G35" t="n">
-        <v>-10336280.85068698</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1883468.939</v>
       </c>
       <c r="G36" t="n">
-        <v>-8452811.911686981</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1462899.1664</v>
       </c>
       <c r="G37" t="n">
-        <v>-8452811.911686981</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2106767.8807</v>
       </c>
       <c r="G38" t="n">
-        <v>-10559579.79238698</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1330.2972</v>
       </c>
       <c r="G39" t="n">
-        <v>-10558249.49518698</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>132632.4312</v>
       </c>
       <c r="G40" t="n">
-        <v>-10690881.92638698</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1048602.7315</v>
       </c>
       <c r="G41" t="n">
-        <v>-9642279.194886981</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1784358.5349</v>
       </c>
       <c r="G42" t="n">
-        <v>-7857920.65998698</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>670415.2868</v>
       </c>
       <c r="G43" t="n">
-        <v>-8528335.946786981</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>493140.589</v>
       </c>
       <c r="G44" t="n">
-        <v>-8035195.357786981</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>999403.1703</v>
       </c>
       <c r="G45" t="n">
-        <v>-9034598.528086981</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5538.1546</v>
       </c>
       <c r="G46" t="n">
-        <v>-9040136.682686981</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1322248.8422</v>
       </c>
       <c r="G47" t="n">
-        <v>-7717887.840486981</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>490744.9066</v>
       </c>
       <c r="G48" t="n">
-        <v>-7227142.933886981</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>830.4901</v>
       </c>
       <c r="G49" t="n">
-        <v>-7226312.443786981</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1067109.3844</v>
       </c>
       <c r="G50" t="n">
-        <v>-8293421.82818698</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>503243.1881</v>
       </c>
       <c r="G51" t="n">
-        <v>-7790178.640086981</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2104148.9004</v>
       </c>
       <c r="G52" t="n">
-        <v>-5686029.739686981</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1766932.445</v>
       </c>
       <c r="G53" t="n">
-        <v>-5686029.739686981</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>824.7054000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-5685205.034286981</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>861396.6674</v>
       </c>
       <c r="G55" t="n">
-        <v>-6546601.70168698</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>77417.7941</v>
       </c>
       <c r="G56" t="n">
-        <v>-6469183.907586981</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2100175.6707</v>
       </c>
       <c r="G57" t="n">
-        <v>-8569359.578286981</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>803108.8391</v>
       </c>
       <c r="G58" t="n">
-        <v>-8569359.578286981</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>928018.4396</v>
       </c>
       <c r="G59" t="n">
-        <v>-7641341.138686981</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1959369.2466</v>
       </c>
       <c r="G60" t="n">
-        <v>-9600710.385286981</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1781702.867</v>
       </c>
       <c r="G61" t="n">
-        <v>-11382413.25228698</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>827.0643</v>
       </c>
       <c r="G62" t="n">
-        <v>-11381586.18798698</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1577095.651</v>
       </c>
       <c r="G63" t="n">
-        <v>-12958681.83898698</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>831.5947</v>
       </c>
       <c r="G64" t="n">
-        <v>-12957850.24428698</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1393114.5436</v>
       </c>
       <c r="G65" t="n">
-        <v>-14350964.78788698</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1876376.5022</v>
       </c>
       <c r="G66" t="n">
-        <v>-16227341.29008698</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>837.1571</v>
       </c>
       <c r="G67" t="n">
-        <v>-16226504.13298698</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>6676673.5094</v>
       </c>
       <c r="G68" t="n">
-        <v>-22903177.64238698</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>839723.7457</v>
       </c>
       <c r="G69" t="n">
-        <v>-22063453.89668698</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1638929.0323</v>
       </c>
       <c r="G70" t="n">
-        <v>-22063453.89668698</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1158393.1288</v>
       </c>
       <c r="G71" t="n">
-        <v>-23221847.02548698</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,19 @@
         <v>845.5238000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-23221001.50168698</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>0.6079</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6079</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2577,21 @@
         <v>1797174.7237</v>
       </c>
       <c r="G73" t="n">
-        <v>-25018176.22538698</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2613,23 @@
         <v>452085.7535</v>
       </c>
       <c r="G74" t="n">
-        <v>-25470261.97888698</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0.6099</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,15 @@
         <v>855.3108999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-25469406.66798699</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2681,19 @@
         <v>1246861.8506</v>
       </c>
       <c r="G76" t="n">
-        <v>-26716268.51858699</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>0.61</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.61</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2715,21 @@
         <v>11629.1667</v>
       </c>
       <c r="G77" t="n">
-        <v>-26727897.68528699</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2751,21 @@
         <v>1858313.0453</v>
       </c>
       <c r="G78" t="n">
-        <v>-24869584.63998699</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2787,15 @@
         <v>1980953.39</v>
       </c>
       <c r="G79" t="n">
-        <v>-22888631.24998699</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2817,15 @@
         <v>671330.3169</v>
       </c>
       <c r="G80" t="n">
-        <v>-23559961.56688699</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2847,15 @@
         <v>444903.4533</v>
       </c>
       <c r="G81" t="n">
-        <v>-23115058.11358699</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2877,15 @@
         <v>1019167.8796</v>
       </c>
       <c r="G82" t="n">
-        <v>-24134225.99318699</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2907,15 @@
         <v>874.5791</v>
       </c>
       <c r="G83" t="n">
-        <v>-24133351.41408699</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2937,19 @@
         <v>812202.0176</v>
       </c>
       <c r="G84" t="n">
-        <v>-24945553.43168699</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>0.61</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.61</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,22 +2971,23 @@
         <v>903.5476</v>
       </c>
       <c r="G85" t="n">
-        <v>-24944649.88408699</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0.6078</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0.61</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3224,24 +3009,23 @@
         <v>1102781.9294</v>
       </c>
       <c r="G86" t="n">
-        <v>-26047431.81348699</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0.61</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3263,63 +3047,57 @@
         <v>848.1223</v>
       </c>
       <c r="G87" t="n">
-        <v>-26046583.69118699</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0.6084000000000001</v>
       </c>
       <c r="I87" t="n">
         <v>0.6084000000000001</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6097</v>
+      </c>
+      <c r="F88" t="n">
+        <v>910560.4346</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="F88" t="n">
-        <v>910560.4346</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-26957144.12578699</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3341,26 +3119,21 @@
         <v>857.9387</v>
       </c>
       <c r="G89" t="n">
-        <v>-26956286.18708698</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>0.6097</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3382,26 +3155,15 @@
         <v>1200275.4751</v>
       </c>
       <c r="G90" t="n">
-        <v>-28156561.66218698</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3423,22 +3185,15 @@
         <v>2005613.7557</v>
       </c>
       <c r="G91" t="n">
-        <v>-26150947.90648698</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3460,26 +3215,15 @@
         <v>1231273.7077</v>
       </c>
       <c r="G92" t="n">
-        <v>-24919674.19878699</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3501,26 +3245,15 @@
         <v>33419.1615</v>
       </c>
       <c r="G93" t="n">
-        <v>-24886255.03728699</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.6099</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3542,22 +3275,15 @@
         <v>1408703.1114</v>
       </c>
       <c r="G94" t="n">
-        <v>-24886255.03728699</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3579,26 +3305,15 @@
         <v>1234</v>
       </c>
       <c r="G95" t="n">
-        <v>-24885021.03728699</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3620,24 +3335,15 @@
         <v>2030050.6393</v>
       </c>
       <c r="G96" t="n">
-        <v>-26915071.67658699</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3659,22 +3365,15 @@
         <v>2009442.9264</v>
       </c>
       <c r="G97" t="n">
-        <v>-28924514.60298698</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3696,24 +3395,15 @@
         <v>419244.3291</v>
       </c>
       <c r="G98" t="n">
-        <v>-29343758.93208699</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3735,26 +3425,15 @@
         <v>439172.5695</v>
       </c>
       <c r="G99" t="n">
-        <v>-28904586.36258699</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3776,18 +3455,15 @@
         <v>810.7875</v>
       </c>
       <c r="G100" t="n">
-        <v>-28903775.57508698</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3809,18 +3485,15 @@
         <v>823267.9745</v>
       </c>
       <c r="G101" t="n">
-        <v>-28080507.60058698</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3842,18 +3515,15 @@
         <v>1235304.0281</v>
       </c>
       <c r="G102" t="n">
-        <v>-29315811.62868698</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3875,18 +3545,15 @@
         <v>3289659.6596</v>
       </c>
       <c r="G103" t="n">
-        <v>-26026151.96908698</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3908,18 +3575,15 @@
         <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>-26026151.96908698</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3941,18 +3605,15 @@
         <v>1121477.1897</v>
       </c>
       <c r="G105" t="n">
-        <v>-27147629.15878698</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3974,18 +3635,15 @@
         <v>1939150.5923</v>
       </c>
       <c r="G106" t="n">
-        <v>-29086779.75108698</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4007,18 +3665,15 @@
         <v>1652612.9613</v>
       </c>
       <c r="G107" t="n">
-        <v>-27434166.78978698</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4040,18 +3695,15 @@
         <v>1410728.452</v>
       </c>
       <c r="G108" t="n">
-        <v>-28844895.24178698</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4073,18 +3725,15 @@
         <v>619883.0473</v>
       </c>
       <c r="G109" t="n">
-        <v>-29464778.28908698</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4106,18 +3755,15 @@
         <v>819625.6473</v>
       </c>
       <c r="G110" t="n">
-        <v>-28645152.64178698</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4139,18 +3785,15 @@
         <v>842.5897</v>
       </c>
       <c r="G111" t="n">
-        <v>-28644310.05208698</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4172,18 +3815,15 @@
         <v>708242.9408</v>
       </c>
       <c r="G112" t="n">
-        <v>-29352552.99288698</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4205,18 +3845,15 @@
         <v>519966.2084</v>
       </c>
       <c r="G113" t="n">
-        <v>-28832586.78448698</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4238,18 +3875,15 @@
         <v>204085.2465</v>
       </c>
       <c r="G114" t="n">
-        <v>-28628501.53798698</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4271,18 +3905,15 @@
         <v>494499.721</v>
       </c>
       <c r="G115" t="n">
-        <v>-29123001.25898698</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4304,18 +3935,15 @@
         <v>4781.0791</v>
       </c>
       <c r="G116" t="n">
-        <v>-29118220.17988698</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4337,18 +3965,15 @@
         <v>204085.2465</v>
       </c>
       <c r="G117" t="n">
-        <v>-29322305.42638698</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4370,18 +3995,15 @@
         <v>1338527.3688</v>
       </c>
       <c r="G118" t="n">
-        <v>-27983778.05758698</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4403,18 +4025,15 @@
         <v>913.7163</v>
       </c>
       <c r="G119" t="n">
-        <v>-27982864.34128698</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4436,18 +4055,15 @@
         <v>115864.2886</v>
       </c>
       <c r="G120" t="n">
-        <v>-27982864.34128698</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4469,18 +4085,15 @@
         <v>608283.2554</v>
       </c>
       <c r="G121" t="n">
-        <v>-27374581.08588699</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4502,18 +4115,15 @@
         <v>724033.2674</v>
       </c>
       <c r="G122" t="n">
-        <v>-28098614.35328699</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4535,18 +4145,15 @@
         <v>825277.425</v>
       </c>
       <c r="G123" t="n">
-        <v>-28923891.77828699</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4568,18 +4175,15 @@
         <v>4781.8433</v>
       </c>
       <c r="G124" t="n">
-        <v>-28919109.93498699</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4601,18 +4205,15 @@
         <v>1408529.1569</v>
       </c>
       <c r="G125" t="n">
-        <v>-30327639.09188699</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4634,18 +4235,15 @@
         <v>632575.116</v>
       </c>
       <c r="G126" t="n">
-        <v>-30960214.20788699</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4667,18 +4265,15 @@
         <v>1524725.8239</v>
       </c>
       <c r="G127" t="n">
-        <v>-29435488.38398699</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4700,18 +4295,15 @@
         <v>1060.1431</v>
       </c>
       <c r="G128" t="n">
-        <v>-29434428.24088699</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4733,18 +4325,15 @@
         <v>1486810.2918</v>
       </c>
       <c r="G129" t="n">
-        <v>-30921238.53268699</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4766,18 +4355,15 @@
         <v>971.4173</v>
       </c>
       <c r="G130" t="n">
-        <v>-30920267.11538699</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4799,18 +4385,15 @@
         <v>1706236.026</v>
       </c>
       <c r="G131" t="n">
-        <v>-32626503.14138699</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4832,18 +4415,15 @@
         <v>1055.19</v>
       </c>
       <c r="G132" t="n">
-        <v>-32625447.95138698</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4865,18 +4445,15 @@
         <v>1104678.4103</v>
       </c>
       <c r="G133" t="n">
-        <v>-33730126.36168698</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4898,18 +4475,15 @@
         <v>420852.1436</v>
       </c>
       <c r="G134" t="n">
-        <v>-33309274.21808698</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4931,18 +4505,15 @@
         <v>1893233.4519</v>
       </c>
       <c r="G135" t="n">
-        <v>-31416040.76618698</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4964,18 +4535,15 @@
         <v>100274.9005</v>
       </c>
       <c r="G136" t="n">
-        <v>-31516315.66668698</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4997,18 +4565,15 @@
         <v>1586.7152</v>
       </c>
       <c r="G137" t="n">
-        <v>-31514728.95148698</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5030,18 +4595,15 @@
         <v>583070.5956</v>
       </c>
       <c r="G138" t="n">
-        <v>-32097799.54708698</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5063,18 +4625,15 @@
         <v>1592.5278</v>
       </c>
       <c r="G139" t="n">
-        <v>-32096207.01928698</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5096,18 +4655,15 @@
         <v>1445548.7448</v>
       </c>
       <c r="G140" t="n">
-        <v>-33541755.76408698</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5129,18 +4685,15 @@
         <v>1992200.2247</v>
       </c>
       <c r="G141" t="n">
-        <v>-35533955.98878698</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5162,18 +4715,15 @@
         <v>2039794.8165</v>
       </c>
       <c r="G142" t="n">
-        <v>-37573750.80528698</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5195,18 +4745,15 @@
         <v>4570.1189</v>
       </c>
       <c r="G143" t="n">
-        <v>-37578320.92418698</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5228,18 +4775,15 @@
         <v>2999.519307803237</v>
       </c>
       <c r="G144" t="n">
-        <v>-37575321.40487918</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5261,18 +4805,15 @@
         <v>1872338.4168</v>
       </c>
       <c r="G145" t="n">
-        <v>-39447659.82167918</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5294,18 +4835,15 @@
         <v>1112866.4715</v>
       </c>
       <c r="G146" t="n">
-        <v>-38334793.35017918</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5327,18 +4865,15 @@
         <v>1855254.9218</v>
       </c>
       <c r="G147" t="n">
-        <v>-40190048.27197918</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5360,18 +4895,15 @@
         <v>1420411.0723</v>
       </c>
       <c r="G148" t="n">
-        <v>-41610459.34427918</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5393,18 +4925,15 @@
         <v>445469.4446</v>
       </c>
       <c r="G149" t="n">
-        <v>-41164989.89967918</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5426,18 +4955,15 @@
         <v>9964.112999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-41155025.78667919</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5459,18 +4985,15 @@
         <v>1746881.9599</v>
       </c>
       <c r="G151" t="n">
-        <v>-42901907.74657919</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5492,18 +5015,15 @@
         <v>813.5517</v>
       </c>
       <c r="G152" t="n">
-        <v>-42901094.19487918</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5525,18 +5045,15 @@
         <v>4867.741935483871</v>
       </c>
       <c r="G153" t="n">
-        <v>-42905961.93681467</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5558,18 +5075,15 @@
         <v>692479.2871</v>
       </c>
       <c r="G154" t="n">
-        <v>-43598441.22391467</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5591,18 +5105,15 @@
         <v>1854501.5648</v>
       </c>
       <c r="G155" t="n">
-        <v>-45452942.78871467</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5624,18 +5135,15 @@
         <v>1705139.9473</v>
       </c>
       <c r="G156" t="n">
-        <v>-47158082.73601467</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5657,18 +5165,15 @@
         <v>1885355.6928</v>
       </c>
       <c r="G157" t="n">
-        <v>-45272727.04321467</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5690,18 +5195,15 @@
         <v>1548845.5099</v>
       </c>
       <c r="G158" t="n">
-        <v>-46821572.55311467</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5723,18 +5225,15 @@
         <v>2233032.4454</v>
       </c>
       <c r="G159" t="n">
-        <v>-49054604.99851467</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5756,18 +5255,15 @@
         <v>1069950.9809</v>
       </c>
       <c r="G160" t="n">
-        <v>-47984654.01761467</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5789,18 +5285,15 @@
         <v>1644508.8814</v>
       </c>
       <c r="G161" t="n">
-        <v>-49629162.89901467</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5822,18 +5315,15 @@
         <v>1491251.6822</v>
       </c>
       <c r="G162" t="n">
-        <v>-48137911.21681467</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5855,18 +5345,15 @@
         <v>1622396.5416</v>
       </c>
       <c r="G163" t="n">
-        <v>-46515514.67521466</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5888,18 +5375,15 @@
         <v>1544</v>
       </c>
       <c r="G164" t="n">
-        <v>-46513970.67521466</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5921,18 +5405,15 @@
         <v>4921.419277419355</v>
       </c>
       <c r="G165" t="n">
-        <v>-46513970.67521466</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5954,18 +5435,15 @@
         <v>3232.7096</v>
       </c>
       <c r="G166" t="n">
-        <v>-46517203.38481466</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5987,18 +5465,15 @@
         <v>1220797.3337</v>
       </c>
       <c r="G167" t="n">
-        <v>-45296406.05111466</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6020,18 +5495,15 @@
         <v>1044.0672</v>
       </c>
       <c r="G168" t="n">
-        <v>-45295361.98391467</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6053,18 +5525,15 @@
         <v>1804513.9774</v>
       </c>
       <c r="G169" t="n">
-        <v>-47099875.96131466</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6086,18 +5555,15 @@
         <v>1289714.2537</v>
       </c>
       <c r="G170" t="n">
-        <v>-48389590.21501467</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6119,18 +5585,15 @@
         <v>1245744.2772</v>
       </c>
       <c r="G171" t="n">
-        <v>-49635334.49221466</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6152,18 +5615,15 @@
         <v>1608659.4889</v>
       </c>
       <c r="G172" t="n">
-        <v>-48026675.00331467</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6185,18 +5645,15 @@
         <v>543175.9488</v>
       </c>
       <c r="G173" t="n">
-        <v>-48569850.95211466</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6218,18 +5675,15 @@
         <v>1395420.2991</v>
       </c>
       <c r="G174" t="n">
-        <v>-47174430.65301467</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6251,18 +5705,15 @@
         <v>628976.2284</v>
       </c>
       <c r="G175" t="n">
-        <v>-47803406.88141467</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6284,18 +5735,15 @@
         <v>1604378.8081</v>
       </c>
       <c r="G176" t="n">
-        <v>-46199028.07331467</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6317,18 +5765,15 @@
         <v>848.7893</v>
       </c>
       <c r="G177" t="n">
-        <v>-46198179.28401466</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
